--- a/worlds/celeste/data/items.xlsx
+++ b/worlds/celeste/data/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Archipelago\worlds\celeste\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B0B52-AE35-49C8-9BE7-F8F1F4DE51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2FFC8-50A5-4E5A-A2B7-F14E4B403259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C0CD6F56-D694-4BE6-8516-FA8CA6FB3D5E}"/>
+    <workbookView xWindow="3552" yWindow="2280" windowWidth="23040" windowHeight="12204" xr2:uid="{C0CD6F56-D694-4BE6-8516-FA8CA6FB3D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16A95FA-F51A-42F8-84DA-309114F88AAA}">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -502,11 +502,11 @@
         <v>8000000</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E66" si="0">IF(A2="cassette", 10000, IF(A2="completion", 20000, IF(A2="gemheart", 30000, IF(A2="strawberry", 40000, 0))))</f>
-        <v>10000</v>
+        <f>IF(A2="cassette", 20000, IF(A2="completion", 40000, IF(A2="gemheart", 60000, IF(A2="strawberry", 80000, 0))))</f>
+        <v>20000</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F34" si="1">B2*1000</f>
+        <f t="shared" ref="F2:F35" si="0">B2*1000</f>
         <v>1000</v>
       </c>
       <c r="G2">
@@ -518,12 +518,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT(UPPER(A2), "_", B2, MID("ABC", C2 + 1, 1), IF(COUNTIFS(A:A, A2, B:B, B2, C:C, C2)&gt;1, _xlfn.CONCAT("_", H2), ""))</f>
-        <v>CASSETTE_1A</v>
+        <f>_xlfn.CONCAT("Level ", B2, " ", MID("ABC", C2 + 1, 1), "-Side", IF(A2="completion", " Complete", IF(A2="cassette", " Cassette", IF(A2="gemheart", " Crystal Heart", IF(A2="strawberry", _xlfn.CONCAT(" Strawberry ", H2+1), "")))))</f>
+        <v>Level 1 A-Side Cassette</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J34" si="2">SUM(D2:H2)</f>
-        <v>8011000</v>
+        <f t="shared" ref="J2:J35" si="1">SUM(D2:H2)</f>
+        <v>8021000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -541,15 +541,15 @@
         <v>8000000</v>
       </c>
       <c r="E3">
+        <f t="shared" ref="E3:E66" si="2">IF(A3="cassette", 20000, IF(A3="completion", 40000, IF(A3="gemheart", 60000, IF(A3="strawberry", 80000, 0))))</f>
+        <v>20000</v>
+      </c>
+      <c r="F3">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="3">C3*100</f>
+        <f t="shared" ref="G3:G35" si="3">C3*100</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -557,12 +557,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.CONCAT(UPPER(A3), "_", B3, MID("ABC", C3 + 1, 1), IF(COUNTIFS(A:A, A3, B:B, B3, C:C, C3)&gt;1, _xlfn.CONCAT("_", H3), ""))</f>
-        <v>CASSETTE_2A</v>
+        <f t="shared" ref="I3:I67" si="4">_xlfn.CONCAT("Level ", B3, " ", MID("ABC", C3 + 1, 1), "-Side", IF(A3="completion", " Complete", IF(A3="cassette", " Cassette", IF(A3="gemheart", " Crystal Heart", IF(A3="strawberry", _xlfn.CONCAT(" Strawberry ", H3+1), "")))))</f>
+        <v>Level 2 A-Side Cassette</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
-        <v>8012000</v>
+        <f t="shared" si="1"/>
+        <v>8022000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -576,15 +576,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D68" si="4">$D$2</f>
+        <f t="shared" ref="D4:D69" si="5">$D$2</f>
         <v>8000000</v>
       </c>
       <c r="E4">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G4">
@@ -596,12 +596,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.CONCAT(UPPER(A4), "_", B4, MID("ABC", C4 + 1, 1), IF(COUNTIFS(A:A, A4, B:B, B4, C:C, C4)&gt;1, _xlfn.CONCAT("_", H4), ""))</f>
-        <v>CASSETTE_3A</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 A-Side Cassette</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
-        <v>8013000</v>
+        <f t="shared" si="1"/>
+        <v>8023000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -615,15 +615,15 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G5">
@@ -635,12 +635,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.CONCAT(UPPER(A5), "_", B5, MID("ABC", C5 + 1, 1), IF(COUNTIFS(A:A, A5, B:B, B5, C:C, C5)&gt;1, _xlfn.CONCAT("_", H5), ""))</f>
-        <v>CASSETTE_4A</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 A-Side Cassette</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>8014000</v>
+        <f t="shared" si="1"/>
+        <v>8024000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -654,15 +654,15 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="G6">
@@ -674,12 +674,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.CONCAT(UPPER(A6), "_", B6, MID("ABC", C6 + 1, 1), IF(COUNTIFS(A:A, A6, B:B, B6, C:C, C6)&gt;1, _xlfn.CONCAT("_", H6), ""))</f>
-        <v>CASSETTE_5A</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 A-Side Cassette</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>8015000</v>
+        <f t="shared" si="1"/>
+        <v>8025000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -693,15 +693,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E7">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="G7">
@@ -713,12 +713,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.CONCAT(UPPER(A7), "_", B7, MID("ABC", C7 + 1, 1), IF(COUNTIFS(A:A, A7, B:B, B7, C:C, C7)&gt;1, _xlfn.CONCAT("_", H7), ""))</f>
-        <v>CASSETTE_6A</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 A-Side Cassette</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>8016000</v>
+        <f t="shared" si="1"/>
+        <v>8026000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -732,15 +732,15 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E8">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="G8">
@@ -752,12 +752,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.CONCAT(UPPER(A8), "_", B8, MID("ABC", C8 + 1, 1), IF(COUNTIFS(A:A, A8, B:B, B8, C:C, C8)&gt;1, _xlfn.CONCAT("_", H8), ""))</f>
-        <v>CASSETTE_7A</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 A-Side Cassette</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>8017000</v>
+        <f t="shared" si="1"/>
+        <v>8027000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -765,22 +765,22 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E9">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -791,12 +791,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.CONCAT(UPPER(A9), "_", B9, MID("ABC", C9 + 1, 1), IF(COUNTIFS(A:A, A9, B:B, B9, C:C, C9)&gt;1, _xlfn.CONCAT("_", H9), ""))</f>
-        <v>CASSETTE_8A</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 A-Side Cassette</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>8018000</v>
+        <f t="shared" si="1"/>
+        <v>8029000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -810,15 +810,15 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="G10">
@@ -830,12 +830,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.CONCAT(UPPER(A10), "_", B10, MID("ABC", C10 + 1, 1), IF(COUNTIFS(A:A, A10, B:B, B10, C:C, C10)&gt;1, _xlfn.CONCAT("_", H10), ""))</f>
-        <v>COMPLETION_1A</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Complete</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>8021000</v>
+        <f t="shared" si="1"/>
+        <v>8041000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -849,15 +849,15 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G11">
@@ -869,12 +869,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.CONCAT(UPPER(A11), "_", B11, MID("ABC", C11 + 1, 1), IF(COUNTIFS(A:A, A11, B:B, B11, C:C, C11)&gt;1, _xlfn.CONCAT("_", H11), ""))</f>
-        <v>COMPLETION_2A</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 A-Side Complete</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>8022000</v>
+        <f t="shared" si="1"/>
+        <v>8042000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -888,15 +888,15 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="G12">
@@ -908,12 +908,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.CONCAT(UPPER(A12), "_", B12, MID("ABC", C12 + 1, 1), IF(COUNTIFS(A:A, A12, B:B, B12, C:C, C12)&gt;1, _xlfn.CONCAT("_", H12), ""))</f>
-        <v>COMPLETION_3A</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 A-Side Complete</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>8023000</v>
+        <f t="shared" si="1"/>
+        <v>8043000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -927,15 +927,15 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="G13">
@@ -947,12 +947,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.CONCAT(UPPER(A13), "_", B13, MID("ABC", C13 + 1, 1), IF(COUNTIFS(A:A, A13, B:B, B13, C:C, C13)&gt;1, _xlfn.CONCAT("_", H13), ""))</f>
-        <v>COMPLETION_4A</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 A-Side Complete</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>8024000</v>
+        <f t="shared" si="1"/>
+        <v>8044000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -966,15 +966,15 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="G14">
@@ -986,12 +986,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.CONCAT(UPPER(A14), "_", B14, MID("ABC", C14 + 1, 1), IF(COUNTIFS(A:A, A14, B:B, B14, C:C, C14)&gt;1, _xlfn.CONCAT("_", H14), ""))</f>
-        <v>COMPLETION_5A</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 A-Side Complete</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>8025000</v>
+        <f t="shared" si="1"/>
+        <v>8045000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1005,15 +1005,15 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="G15">
@@ -1025,12 +1025,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.CONCAT(UPPER(A15), "_", B15, MID("ABC", C15 + 1, 1), IF(COUNTIFS(A:A, A15, B:B, B15, C:C, C15)&gt;1, _xlfn.CONCAT("_", H15), ""))</f>
-        <v>COMPLETION_6A</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 A-Side Complete</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>8026000</v>
+        <f t="shared" si="1"/>
+        <v>8046000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1044,15 +1044,15 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="G16">
@@ -1064,12 +1064,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.CONCAT(UPPER(A16), "_", B16, MID("ABC", C16 + 1, 1), IF(COUNTIFS(A:A, A16, B:B, B16, C:C, C16)&gt;1, _xlfn.CONCAT("_", H16), ""))</f>
-        <v>COMPLETION_7A</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 A-Side Complete</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>8027000</v>
+        <f t="shared" si="1"/>
+        <v>8047000</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1083,15 +1083,15 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="G17">
@@ -1103,12 +1103,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.CONCAT(UPPER(A17), "_", B17, MID("ABC", C17 + 1, 1), IF(COUNTIFS(A:A, A17, B:B, B17, C:C, C17)&gt;1, _xlfn.CONCAT("_", H17), ""))</f>
-        <v>COMPLETION_8A</v>
+        <f t="shared" si="4"/>
+        <v>Level 8 A-Side Complete</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>8028000</v>
+        <f t="shared" si="1"/>
+        <v>8048000</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="5">IF(A18="cassette", 10000, IF(A18="completion", 20000, IF(A18="gemheart", 30000, IF(A18="strawberry", 40000, 0))))</f>
-        <v>20000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="6">B18*1000</f>
+        <f t="shared" ref="F18:F19" si="6">B18*1000</f>
         <v>9000</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18" si="7">C18*100</f>
+        <f t="shared" ref="G18:G19" si="7">C18*100</f>
         <v>0</v>
       </c>
       <c r="H18">
@@ -1142,12 +1142,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="str">
-        <f>_xlfn.CONCAT(UPPER(A18), "_", B18, MID("ABC", C18 + 1, 1), IF(COUNTIFS(A:A, A18, B:B, B18, C:C, C18)&gt;1, _xlfn.CONCAT("_", H18), ""))</f>
-        <v>COMPLETION_9A</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 A-Side Complete</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18" si="8">SUM(D18:H18)</f>
-        <v>8029000</v>
+        <f t="shared" ref="J18:J19" si="8">SUM(D18:H18)</f>
+        <v>8049000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1155,38 +1155,38 @@
         <v>11</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="6"/>
+        <v>10000</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="H19">
         <f>COUNTIFS($A$2:A19, A19, $B$2:B19, B19, $C$2:C19, C19) - 1</f>
         <v>0</v>
       </c>
       <c r="I19" t="str">
-        <f>_xlfn.CONCAT(UPPER(A19), "_", B19, MID("ABC", C19 + 1, 1), IF(COUNTIFS(A:A, A19, B:B, B19, C:C, C19)&gt;1, _xlfn.CONCAT("_", H19), ""))</f>
-        <v>COMPLETION_1B</v>
+        <f t="shared" si="4"/>
+        <v>Level 10 A-Side Complete</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>8021100</v>
+        <f t="shared" si="8"/>
+        <v>8050000</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1194,22 +1194,22 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E20">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
@@ -1220,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="str">
-        <f>_xlfn.CONCAT(UPPER(A20), "_", B20, MID("ABC", C20 + 1, 1), IF(COUNTIFS(A:A, A20, B:B, B20, C:C, C20)&gt;1, _xlfn.CONCAT("_", H20), ""))</f>
-        <v>COMPLETION_2B</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 B-Side Complete</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>8022100</v>
+        <f t="shared" si="1"/>
+        <v>8041100</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1233,22 +1233,22 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E21">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -1259,12 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="str">
-        <f>_xlfn.CONCAT(UPPER(A21), "_", B21, MID("ABC", C21 + 1, 1), IF(COUNTIFS(A:A, A21, B:B, B21, C:C, C21)&gt;1, _xlfn.CONCAT("_", H21), ""))</f>
-        <v>COMPLETION_3B</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 B-Side Complete</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
-        <v>8023100</v>
+        <f t="shared" si="1"/>
+        <v>8042100</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,22 +1272,22 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E22">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
@@ -1298,12 +1298,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="str">
-        <f>_xlfn.CONCAT(UPPER(A22), "_", B22, MID("ABC", C22 + 1, 1), IF(COUNTIFS(A:A, A22, B:B, B22, C:C, C22)&gt;1, _xlfn.CONCAT("_", H22), ""))</f>
-        <v>COMPLETION_4B</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 B-Side Complete</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
-        <v>8024100</v>
+        <f t="shared" si="1"/>
+        <v>8043100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1311,22 +1311,22 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E23">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="str">
-        <f>_xlfn.CONCAT(UPPER(A23), "_", B23, MID("ABC", C23 + 1, 1), IF(COUNTIFS(A:A, A23, B:B, B23, C:C, C23)&gt;1, _xlfn.CONCAT("_", H23), ""))</f>
-        <v>COMPLETION_5B</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 B-Side Complete</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
-        <v>8025100</v>
+        <f t="shared" si="1"/>
+        <v>8044100</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1350,22 +1350,22 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E24">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -1376,12 +1376,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="str">
-        <f>_xlfn.CONCAT(UPPER(A24), "_", B24, MID("ABC", C24 + 1, 1), IF(COUNTIFS(A:A, A24, B:B, B24, C:C, C24)&gt;1, _xlfn.CONCAT("_", H24), ""))</f>
-        <v>COMPLETION_6B</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 B-Side Complete</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
-        <v>8026100</v>
+        <f t="shared" si="1"/>
+        <v>8045100</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1389,22 +1389,22 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E25">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -1415,12 +1415,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="str">
-        <f>_xlfn.CONCAT(UPPER(A25), "_", B25, MID("ABC", C25 + 1, 1), IF(COUNTIFS(A:A, A25, B:B, B25, C:C, C25)&gt;1, _xlfn.CONCAT("_", H25), ""))</f>
-        <v>COMPLETION_7B</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 B-Side Complete</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
-        <v>8027100</v>
+        <f t="shared" si="1"/>
+        <v>8046100</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1428,22 +1428,22 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E26">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
@@ -1454,12 +1454,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="str">
-        <f>_xlfn.CONCAT(UPPER(A26), "_", B26, MID("ABC", C26 + 1, 1), IF(COUNTIFS(A:A, A26, B:B, B26, C:C, C26)&gt;1, _xlfn.CONCAT("_", H26), ""))</f>
-        <v>COMPLETION_8B</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 B-Side Complete</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
-        <v>8028100</v>
+        <f t="shared" si="1"/>
+        <v>8047100</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1467,38 +1467,38 @@
         <v>11</v>
       </c>
       <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E27">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <f>COUNTIFS($A$2:A27, A27, $B$2:B27, B27, $C$2:C27, C27) - 1</f>
         <v>0</v>
       </c>
       <c r="I27" t="str">
-        <f>_xlfn.CONCAT(UPPER(A27), "_", B27, MID("ABC", C27 + 1, 1), IF(COUNTIFS(A:A, A27, B:B, B27, C:C, C27)&gt;1, _xlfn.CONCAT("_", H27), ""))</f>
-        <v>COMPLETION_1C</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 B-Side Complete</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
-        <v>8021200</v>
+        <f t="shared" si="1"/>
+        <v>8049100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1506,22 +1506,22 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E28">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
@@ -1532,12 +1532,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="str">
-        <f>_xlfn.CONCAT(UPPER(A28), "_", B28, MID("ABC", C28 + 1, 1), IF(COUNTIFS(A:A, A28, B:B, B28, C:C, C28)&gt;1, _xlfn.CONCAT("_", H28), ""))</f>
-        <v>COMPLETION_2C</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 C-Side Complete</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>8022200</v>
+        <f t="shared" si="1"/>
+        <v>8041200</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1545,22 +1545,22 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E29">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
@@ -1571,12 +1571,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="str">
-        <f>_xlfn.CONCAT(UPPER(A29), "_", B29, MID("ABC", C29 + 1, 1), IF(COUNTIFS(A:A, A29, B:B, B29, C:C, C29)&gt;1, _xlfn.CONCAT("_", H29), ""))</f>
-        <v>COMPLETION_3C</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 C-Side Complete</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
-        <v>8023200</v>
+        <f t="shared" si="1"/>
+        <v>8042200</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1584,22 +1584,22 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E30">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
@@ -1610,12 +1610,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="str">
-        <f>_xlfn.CONCAT(UPPER(A30), "_", B30, MID("ABC", C30 + 1, 1), IF(COUNTIFS(A:A, A30, B:B, B30, C:C, C30)&gt;1, _xlfn.CONCAT("_", H30), ""))</f>
-        <v>COMPLETION_4C</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 C-Side Complete</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>8024200</v>
+        <f t="shared" si="1"/>
+        <v>8043200</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1623,22 +1623,22 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E31">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -1649,12 +1649,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="str">
-        <f>_xlfn.CONCAT(UPPER(A31), "_", B31, MID("ABC", C31 + 1, 1), IF(COUNTIFS(A:A, A31, B:B, B31, C:C, C31)&gt;1, _xlfn.CONCAT("_", H31), ""))</f>
-        <v>COMPLETION_5C</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 C-Side Complete</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
-        <v>8025200</v>
+        <f t="shared" si="1"/>
+        <v>8044200</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1662,22 +1662,22 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E32">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
@@ -1688,12 +1688,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="str">
-        <f>_xlfn.CONCAT(UPPER(A32), "_", B32, MID("ABC", C32 + 1, 1), IF(COUNTIFS(A:A, A32, B:B, B32, C:C, C32)&gt;1, _xlfn.CONCAT("_", H32), ""))</f>
-        <v>COMPLETION_6C</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 C-Side Complete</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>8026200</v>
+        <f t="shared" si="1"/>
+        <v>8045200</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1701,22 +1701,22 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E33">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
@@ -1727,12 +1727,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="str">
-        <f>_xlfn.CONCAT(UPPER(A33), "_", B33, MID("ABC", C33 + 1, 1), IF(COUNTIFS(A:A, A33, B:B, B33, C:C, C33)&gt;1, _xlfn.CONCAT("_", H33), ""))</f>
-        <v>COMPLETION_7C</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 C-Side Complete</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>8027200</v>
+        <f t="shared" si="1"/>
+        <v>8046200</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1740,22 +1740,22 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E34">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
@@ -1766,51 +1766,51 @@
         <v>0</v>
       </c>
       <c r="I34" t="str">
-        <f>_xlfn.CONCAT(UPPER(A34), "_", B34, MID("ABC", C34 + 1, 1), IF(COUNTIFS(A:A, A34, B:B, B34, C:C, C34)&gt;1, _xlfn.CONCAT("_", H34), ""))</f>
-        <v>COMPLETION_8C</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 C-Side Complete</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
-        <v>8028200</v>
+        <f t="shared" si="1"/>
+        <v>8047200</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E35">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35:F58" si="9">B35*1000</f>
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G58" si="10">C35*100</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="H35">
         <f>COUNTIFS($A$2:A35, A35, $B$2:B35, B35, $C$2:C35, C35) - 1</f>
         <v>0</v>
       </c>
       <c r="I35" t="str">
-        <f>_xlfn.CONCAT(UPPER(A35), "_", B35, MID("ABC", C35 + 1, 1), IF(COUNTIFS(A:A, A35, B:B, B35, C:C, C35)&gt;1, _xlfn.CONCAT("_", H35), ""))</f>
-        <v>GEMHEART_1A</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 C-Side Complete</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J58" si="11">SUM(D35:H35)</f>
-        <v>8031000</v>
+        <f t="shared" si="1"/>
+        <v>8049200</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1818,25 +1818,25 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F36">
-        <f t="shared" si="9"/>
-        <v>2000</v>
+        <f t="shared" ref="F36:F59" si="9">B36*1000</f>
+        <v>1000</v>
       </c>
       <c r="G36">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G36:G59" si="10">C36*100</f>
         <v>0</v>
       </c>
       <c r="H36">
@@ -1844,12 +1844,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="str">
-        <f>_xlfn.CONCAT(UPPER(A36), "_", B36, MID("ABC", C36 + 1, 1), IF(COUNTIFS(A:A, A36, B:B, B36, C:C, C36)&gt;1, _xlfn.CONCAT("_", H36), ""))</f>
-        <v>GEMHEART_2A</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Crystal Heart</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
-        <v>8032000</v>
+        <f t="shared" ref="J36:J59" si="11">SUM(D36:H36)</f>
+        <v>8061000</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1857,22 +1857,22 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F37">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G37">
         <f t="shared" si="10"/>
@@ -1883,12 +1883,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="str">
-        <f>_xlfn.CONCAT(UPPER(A37), "_", B37, MID("ABC", C37 + 1, 1), IF(COUNTIFS(A:A, A37, B:B, B37, C:C, C37)&gt;1, _xlfn.CONCAT("_", H37), ""))</f>
-        <v>GEMHEART_3A</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 A-Side Crystal Heart</v>
       </c>
       <c r="J37">
         <f t="shared" si="11"/>
-        <v>8033000</v>
+        <v>8062000</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1896,22 +1896,22 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F38">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G38">
         <f t="shared" si="10"/>
@@ -1922,12 +1922,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="str">
-        <f>_xlfn.CONCAT(UPPER(A38), "_", B38, MID("ABC", C38 + 1, 1), IF(COUNTIFS(A:A, A38, B:B, B38, C:C, C38)&gt;1, _xlfn.CONCAT("_", H38), ""))</f>
-        <v>GEMHEART_4A</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 A-Side Crystal Heart</v>
       </c>
       <c r="J38">
         <f t="shared" si="11"/>
-        <v>8034000</v>
+        <v>8063000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1935,22 +1935,22 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F39">
         <f t="shared" si="9"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G39">
         <f t="shared" si="10"/>
@@ -1961,12 +1961,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="str">
-        <f>_xlfn.CONCAT(UPPER(A39), "_", B39, MID("ABC", C39 + 1, 1), IF(COUNTIFS(A:A, A39, B:B, B39, C:C, C39)&gt;1, _xlfn.CONCAT("_", H39), ""))</f>
-        <v>GEMHEART_5A</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 A-Side Crystal Heart</v>
       </c>
       <c r="J39">
         <f t="shared" si="11"/>
-        <v>8035000</v>
+        <v>8064000</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1974,22 +1974,22 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F40">
         <f t="shared" si="9"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G40">
         <f t="shared" si="10"/>
@@ -2000,12 +2000,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="str">
-        <f>_xlfn.CONCAT(UPPER(A40), "_", B40, MID("ABC", C40 + 1, 1), IF(COUNTIFS(A:A, A40, B:B, B40, C:C, C40)&gt;1, _xlfn.CONCAT("_", H40), ""))</f>
-        <v>GEMHEART_6A</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 A-Side Crystal Heart</v>
       </c>
       <c r="J40">
         <f t="shared" si="11"/>
-        <v>8036000</v>
+        <v>8065000</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2013,22 +2013,22 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F41">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G41">
         <f t="shared" si="10"/>
@@ -2039,12 +2039,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="str">
-        <f>_xlfn.CONCAT(UPPER(A41), "_", B41, MID("ABC", C41 + 1, 1), IF(COUNTIFS(A:A, A41, B:B, B41, C:C, C41)&gt;1, _xlfn.CONCAT("_", H41), ""))</f>
-        <v>GEMHEART_7A</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 A-Side Crystal Heart</v>
       </c>
       <c r="J41">
         <f t="shared" si="11"/>
-        <v>8037000</v>
+        <v>8066000</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2052,22 +2052,22 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F42">
         <f t="shared" si="9"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G42">
         <f t="shared" si="10"/>
@@ -2078,12 +2078,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="str">
-        <f>_xlfn.CONCAT(UPPER(A42), "_", B42, MID("ABC", C42 + 1, 1), IF(COUNTIFS(A:A, A42, B:B, B42, C:C, C42)&gt;1, _xlfn.CONCAT("_", H42), ""))</f>
-        <v>GEMHEART_8A</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 A-Side Crystal Heart</v>
       </c>
       <c r="J42">
         <f t="shared" si="11"/>
-        <v>8038000</v>
+        <v>8067000</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2091,38 +2091,38 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F43">
         <f t="shared" si="9"/>
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="G43">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f>COUNTIFS($A$2:A43, A43, $B$2:B43, B43, $C$2:C43, C43) - 1</f>
         <v>0</v>
       </c>
       <c r="I43" t="str">
-        <f>_xlfn.CONCAT(UPPER(A43), "_", B43, MID("ABC", C43 + 1, 1), IF(COUNTIFS(A:A, A43, B:B, B43, C:C, C43)&gt;1, _xlfn.CONCAT("_", H43), ""))</f>
-        <v>GEMHEART_1B</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 A-Side Crystal Heart</v>
       </c>
       <c r="J43">
         <f t="shared" si="11"/>
-        <v>8031100</v>
+        <v>8069000</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2130,22 +2130,22 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F44">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G44">
         <f t="shared" si="10"/>
@@ -2156,12 +2156,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="str">
-        <f>_xlfn.CONCAT(UPPER(A44), "_", B44, MID("ABC", C44 + 1, 1), IF(COUNTIFS(A:A, A44, B:B, B44, C:C, C44)&gt;1, _xlfn.CONCAT("_", H44), ""))</f>
-        <v>GEMHEART_2B</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 B-Side Crystal Heart</v>
       </c>
       <c r="J44">
         <f t="shared" si="11"/>
-        <v>8032100</v>
+        <v>8061100</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2169,22 +2169,22 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F45">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G45">
         <f t="shared" si="10"/>
@@ -2195,12 +2195,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="str">
-        <f>_xlfn.CONCAT(UPPER(A45), "_", B45, MID("ABC", C45 + 1, 1), IF(COUNTIFS(A:A, A45, B:B, B45, C:C, C45)&gt;1, _xlfn.CONCAT("_", H45), ""))</f>
-        <v>GEMHEART_3B</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 B-Side Crystal Heart</v>
       </c>
       <c r="J45">
         <f t="shared" si="11"/>
-        <v>8033100</v>
+        <v>8062100</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2208,22 +2208,22 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F46">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G46">
         <f t="shared" si="10"/>
@@ -2234,12 +2234,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="str">
-        <f>_xlfn.CONCAT(UPPER(A46), "_", B46, MID("ABC", C46 + 1, 1), IF(COUNTIFS(A:A, A46, B:B, B46, C:C, C46)&gt;1, _xlfn.CONCAT("_", H46), ""))</f>
-        <v>GEMHEART_4B</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 B-Side Crystal Heart</v>
       </c>
       <c r="J46">
         <f t="shared" si="11"/>
-        <v>8034100</v>
+        <v>8063100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2247,22 +2247,22 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F47">
         <f t="shared" si="9"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G47">
         <f t="shared" si="10"/>
@@ -2273,12 +2273,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="str">
-        <f>_xlfn.CONCAT(UPPER(A47), "_", B47, MID("ABC", C47 + 1, 1), IF(COUNTIFS(A:A, A47, B:B, B47, C:C, C47)&gt;1, _xlfn.CONCAT("_", H47), ""))</f>
-        <v>GEMHEART_5B</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 B-Side Crystal Heart</v>
       </c>
       <c r="J47">
         <f t="shared" si="11"/>
-        <v>8035100</v>
+        <v>8064100</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2286,22 +2286,22 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G48">
         <f t="shared" si="10"/>
@@ -2312,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="str">
-        <f>_xlfn.CONCAT(UPPER(A48), "_", B48, MID("ABC", C48 + 1, 1), IF(COUNTIFS(A:A, A48, B:B, B48, C:C, C48)&gt;1, _xlfn.CONCAT("_", H48), ""))</f>
-        <v>GEMHEART_6B</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 B-Side Crystal Heart</v>
       </c>
       <c r="J48">
         <f t="shared" si="11"/>
-        <v>8036100</v>
+        <v>8065100</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2325,22 +2325,22 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F49">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G49">
         <f t="shared" si="10"/>
@@ -2351,12 +2351,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="str">
-        <f>_xlfn.CONCAT(UPPER(A49), "_", B49, MID("ABC", C49 + 1, 1), IF(COUNTIFS(A:A, A49, B:B, B49, C:C, C49)&gt;1, _xlfn.CONCAT("_", H49), ""))</f>
-        <v>GEMHEART_7B</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 B-Side Crystal Heart</v>
       </c>
       <c r="J49">
         <f t="shared" si="11"/>
-        <v>8037100</v>
+        <v>8066100</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2364,22 +2364,22 @@
         <v>12</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F50">
         <f t="shared" si="9"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G50">
         <f t="shared" si="10"/>
@@ -2390,12 +2390,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="str">
-        <f>_xlfn.CONCAT(UPPER(A50), "_", B50, MID("ABC", C50 + 1, 1), IF(COUNTIFS(A:A, A50, B:B, B50, C:C, C50)&gt;1, _xlfn.CONCAT("_", H50), ""))</f>
-        <v>GEMHEART_8B</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 B-Side Crystal Heart</v>
       </c>
       <c r="J50">
         <f t="shared" si="11"/>
-        <v>8038100</v>
+        <v>8067100</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2403,38 +2403,38 @@
         <v>12</v>
       </c>
       <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F51">
         <f t="shared" si="9"/>
-        <v>1000</v>
+        <v>9000</v>
       </c>
       <c r="G51">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H51">
         <f>COUNTIFS($A$2:A51, A51, $B$2:B51, B51, $C$2:C51, C51) - 1</f>
         <v>0</v>
       </c>
       <c r="I51" t="str">
-        <f>_xlfn.CONCAT(UPPER(A51), "_", B51, MID("ABC", C51 + 1, 1), IF(COUNTIFS(A:A, A51, B:B, B51, C:C, C51)&gt;1, _xlfn.CONCAT("_", H51), ""))</f>
-        <v>GEMHEART_1C</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 B-Side Crystal Heart</v>
       </c>
       <c r="J51">
         <f t="shared" si="11"/>
-        <v>8031200</v>
+        <v>8069100</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2442,22 +2442,22 @@
         <v>12</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F52">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G52">
         <f t="shared" si="10"/>
@@ -2468,12 +2468,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="str">
-        <f>_xlfn.CONCAT(UPPER(A52), "_", B52, MID("ABC", C52 + 1, 1), IF(COUNTIFS(A:A, A52, B:B, B52, C:C, C52)&gt;1, _xlfn.CONCAT("_", H52), ""))</f>
-        <v>GEMHEART_2C</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 C-Side Crystal Heart</v>
       </c>
       <c r="J52">
         <f t="shared" si="11"/>
-        <v>8032200</v>
+        <v>8061200</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2481,22 +2481,22 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F53">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G53">
         <f t="shared" si="10"/>
@@ -2507,12 +2507,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="str">
-        <f>_xlfn.CONCAT(UPPER(A53), "_", B53, MID("ABC", C53 + 1, 1), IF(COUNTIFS(A:A, A53, B:B, B53, C:C, C53)&gt;1, _xlfn.CONCAT("_", H53), ""))</f>
-        <v>GEMHEART_3C</v>
+        <f t="shared" si="4"/>
+        <v>Level 2 C-Side Crystal Heart</v>
       </c>
       <c r="J53">
         <f t="shared" si="11"/>
-        <v>8033200</v>
+        <v>8062200</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2520,22 +2520,22 @@
         <v>12</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F54">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G54">
         <f t="shared" si="10"/>
@@ -2546,12 +2546,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="str">
-        <f>_xlfn.CONCAT(UPPER(A54), "_", B54, MID("ABC", C54 + 1, 1), IF(COUNTIFS(A:A, A54, B:B, B54, C:C, C54)&gt;1, _xlfn.CONCAT("_", H54), ""))</f>
-        <v>GEMHEART_4C</v>
+        <f t="shared" si="4"/>
+        <v>Level 3 C-Side Crystal Heart</v>
       </c>
       <c r="J54">
         <f t="shared" si="11"/>
-        <v>8034200</v>
+        <v>8063200</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2559,22 +2559,22 @@
         <v>12</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F55">
         <f t="shared" si="9"/>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G55">
         <f t="shared" si="10"/>
@@ -2585,12 +2585,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="str">
-        <f>_xlfn.CONCAT(UPPER(A55), "_", B55, MID("ABC", C55 + 1, 1), IF(COUNTIFS(A:A, A55, B:B, B55, C:C, C55)&gt;1, _xlfn.CONCAT("_", H55), ""))</f>
-        <v>GEMHEART_5C</v>
+        <f t="shared" si="4"/>
+        <v>Level 4 C-Side Crystal Heart</v>
       </c>
       <c r="J55">
         <f t="shared" si="11"/>
-        <v>8035200</v>
+        <v>8064200</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2598,22 +2598,22 @@
         <v>12</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F56">
         <f t="shared" si="9"/>
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="G56">
         <f t="shared" si="10"/>
@@ -2624,12 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="str">
-        <f>_xlfn.CONCAT(UPPER(A56), "_", B56, MID("ABC", C56 + 1, 1), IF(COUNTIFS(A:A, A56, B:B, B56, C:C, C56)&gt;1, _xlfn.CONCAT("_", H56), ""))</f>
-        <v>GEMHEART_6C</v>
+        <f t="shared" si="4"/>
+        <v>Level 5 C-Side Crystal Heart</v>
       </c>
       <c r="J56">
         <f t="shared" si="11"/>
-        <v>8036200</v>
+        <v>8065200</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2637,22 +2637,22 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F57">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G57">
         <f t="shared" si="10"/>
@@ -2663,12 +2663,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="str">
-        <f>_xlfn.CONCAT(UPPER(A57), "_", B57, MID("ABC", C57 + 1, 1), IF(COUNTIFS(A:A, A57, B:B, B57, C:C, C57)&gt;1, _xlfn.CONCAT("_", H57), ""))</f>
-        <v>GEMHEART_7C</v>
+        <f t="shared" si="4"/>
+        <v>Level 6 C-Side Crystal Heart</v>
       </c>
       <c r="J57">
         <f t="shared" si="11"/>
-        <v>8037200</v>
+        <v>8066200</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2676,22 +2676,22 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E58">
-        <f>IF(A58="cassette", 10000, IF(A58="completion", 20000, IF(A58="gemheart", 30000, IF(A58="strawberry", 40000, 0))))</f>
-        <v>30000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F58">
         <f t="shared" si="9"/>
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="G58">
         <f t="shared" si="10"/>
@@ -2702,51 +2702,51 @@
         <v>0</v>
       </c>
       <c r="I58" t="str">
-        <f>_xlfn.CONCAT(UPPER(A58), "_", B58, MID("ABC", C58 + 1, 1), IF(COUNTIFS(A:A, A58, B:B, B58, C:C, C58)&gt;1, _xlfn.CONCAT("_", H58), ""))</f>
-        <v>GEMHEART_8C</v>
+        <f t="shared" si="4"/>
+        <v>Level 7 C-Side Crystal Heart</v>
       </c>
       <c r="J58">
         <f t="shared" si="11"/>
-        <v>8038200</v>
+        <v>8067200</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>60000</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F122" si="12">B59*1000</f>
-        <v>1000</v>
+        <f t="shared" si="9"/>
+        <v>9000</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G122" si="13">C59*100</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="H59">
         <f>COUNTIFS($A$2:A59, A59, $B$2:B59, B59, $C$2:C59, C59) - 1</f>
         <v>0</v>
       </c>
       <c r="I59" t="str">
-        <f>_xlfn.CONCAT(UPPER(A59), "_", B59, MID("ABC", C59 + 1, 1), IF(COUNTIFS(A:A, A59, B:B, B59, C:C, C59)&gt;1, _xlfn.CONCAT("_", H59), ""))</f>
-        <v>STRAWBERRY_1A_0</v>
+        <f t="shared" si="4"/>
+        <v>Level 9 C-Side Crystal Heart</v>
       </c>
       <c r="J59">
-        <f t="shared" ref="J59:J122" si="14">SUM(D59:H59)</f>
-        <v>8041000</v>
+        <f t="shared" si="11"/>
+        <v>8069200</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2760,32 +2760,32 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F60">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F60:F123" si="12">B60*1000</f>
         <v>1000</v>
       </c>
       <c r="G60">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G60:G123" si="13">C60*100</f>
         <v>0</v>
       </c>
       <c r="H60">
         <f>COUNTIFS($A$2:A60, A60, $B$2:B60, B60, $C$2:C60, C60) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="str">
-        <f>_xlfn.CONCAT(UPPER(A60), "_", B60, MID("ABC", C60 + 1, 1), IF(COUNTIFS(A:A, A60, B:B, B60, C:C, C60)&gt;1, _xlfn.CONCAT("_", H60), ""))</f>
-        <v>STRAWBERRY_1A_1</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 1</v>
       </c>
       <c r="J60">
-        <f t="shared" si="14"/>
-        <v>8041001</v>
+        <f t="shared" ref="J60:J123" si="14">SUM(D60:H60)</f>
+        <v>8081000</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2799,12 +2799,12 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F61">
         <f t="shared" si="12"/>
@@ -2816,15 +2816,15 @@
       </c>
       <c r="H61">
         <f>COUNTIFS($A$2:A61, A61, $B$2:B61, B61, $C$2:C61, C61) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="str">
-        <f>_xlfn.CONCAT(UPPER(A61), "_", B61, MID("ABC", C61 + 1, 1), IF(COUNTIFS(A:A, A61, B:B, B61, C:C, C61)&gt;1, _xlfn.CONCAT("_", H61), ""))</f>
-        <v>STRAWBERRY_1A_2</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 2</v>
       </c>
       <c r="J61">
         <f t="shared" si="14"/>
-        <v>8041002</v>
+        <v>8081001</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2838,12 +2838,12 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F62">
         <f t="shared" si="12"/>
@@ -2855,15 +2855,15 @@
       </c>
       <c r="H62">
         <f>COUNTIFS($A$2:A62, A62, $B$2:B62, B62, $C$2:C62, C62) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="str">
-        <f>_xlfn.CONCAT(UPPER(A62), "_", B62, MID("ABC", C62 + 1, 1), IF(COUNTIFS(A:A, A62, B:B, B62, C:C, C62)&gt;1, _xlfn.CONCAT("_", H62), ""))</f>
-        <v>STRAWBERRY_1A_3</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 3</v>
       </c>
       <c r="J62">
         <f t="shared" si="14"/>
-        <v>8041003</v>
+        <v>8081002</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2877,12 +2877,12 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F63">
         <f t="shared" si="12"/>
@@ -2894,15 +2894,15 @@
       </c>
       <c r="H63">
         <f>COUNTIFS($A$2:A63, A63, $B$2:B63, B63, $C$2:C63, C63) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="str">
-        <f>_xlfn.CONCAT(UPPER(A63), "_", B63, MID("ABC", C63 + 1, 1), IF(COUNTIFS(A:A, A63, B:B, B63, C:C, C63)&gt;1, _xlfn.CONCAT("_", H63), ""))</f>
-        <v>STRAWBERRY_1A_4</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 4</v>
       </c>
       <c r="J63">
         <f t="shared" si="14"/>
-        <v>8041004</v>
+        <v>8081003</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2916,12 +2916,12 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F64">
         <f t="shared" si="12"/>
@@ -2933,15 +2933,15 @@
       </c>
       <c r="H64">
         <f>COUNTIFS($A$2:A64, A64, $B$2:B64, B64, $C$2:C64, C64) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I64" t="str">
-        <f>_xlfn.CONCAT(UPPER(A64), "_", B64, MID("ABC", C64 + 1, 1), IF(COUNTIFS(A:A, A64, B:B, B64, C:C, C64)&gt;1, _xlfn.CONCAT("_", H64), ""))</f>
-        <v>STRAWBERRY_1A_5</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 5</v>
       </c>
       <c r="J64">
         <f t="shared" si="14"/>
-        <v>8041005</v>
+        <v>8081004</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2955,12 +2955,12 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F65">
         <f t="shared" si="12"/>
@@ -2972,15 +2972,15 @@
       </c>
       <c r="H65">
         <f>COUNTIFS($A$2:A65, A65, $B$2:B65, B65, $C$2:C65, C65) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I65" t="str">
-        <f>_xlfn.CONCAT(UPPER(A65), "_", B65, MID("ABC", C65 + 1, 1), IF(COUNTIFS(A:A, A65, B:B, B65, C:C, C65)&gt;1, _xlfn.CONCAT("_", H65), ""))</f>
-        <v>STRAWBERRY_1A_6</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 6</v>
       </c>
       <c r="J65">
         <f t="shared" si="14"/>
-        <v>8041006</v>
+        <v>8081005</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2994,12 +2994,12 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
-        <v>40000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="F66">
         <f t="shared" si="12"/>
@@ -3011,15 +3011,15 @@
       </c>
       <c r="H66">
         <f>COUNTIFS($A$2:A66, A66, $B$2:B66, B66, $C$2:C66, C66) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" t="str">
-        <f>_xlfn.CONCAT(UPPER(A66), "_", B66, MID("ABC", C66 + 1, 1), IF(COUNTIFS(A:A, A66, B:B, B66, C:C, C66)&gt;1, _xlfn.CONCAT("_", H66), ""))</f>
-        <v>STRAWBERRY_1A_7</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 7</v>
       </c>
       <c r="J66">
         <f t="shared" si="14"/>
-        <v>8041007</v>
+        <v>8081006</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3033,12 +3033,12 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="15">IF(A67="cassette", 10000, IF(A67="completion", 20000, IF(A67="gemheart", 30000, IF(A67="strawberry", 40000, 0))))</f>
-        <v>40000</v>
+        <f t="shared" ref="E67:E130" si="15">IF(A67="cassette", 20000, IF(A67="completion", 40000, IF(A67="gemheart", 60000, IF(A67="strawberry", 80000, 0))))</f>
+        <v>80000</v>
       </c>
       <c r="F67">
         <f t="shared" si="12"/>
@@ -3050,15 +3050,15 @@
       </c>
       <c r="H67">
         <f>COUNTIFS($A$2:A67, A67, $B$2:B67, B67, $C$2:C67, C67) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I67" t="str">
-        <f>_xlfn.CONCAT(UPPER(A67), "_", B67, MID("ABC", C67 + 1, 1), IF(COUNTIFS(A:A, A67, B:B, B67, C:C, C67)&gt;1, _xlfn.CONCAT("_", H67), ""))</f>
-        <v>STRAWBERRY_1A_8</v>
+        <f t="shared" si="4"/>
+        <v>Level 1 A-Side Strawberry 8</v>
       </c>
       <c r="J67">
         <f t="shared" si="14"/>
-        <v>8041008</v>
+        <v>8081007</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3072,12 +3072,12 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E68">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F68">
         <f t="shared" si="12"/>
@@ -3089,15 +3089,15 @@
       </c>
       <c r="H68">
         <f>COUNTIFS($A$2:A68, A68, $B$2:B68, B68, $C$2:C68, C68) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I68" t="str">
-        <f>_xlfn.CONCAT(UPPER(A68), "_", B68, MID("ABC", C68 + 1, 1), IF(COUNTIFS(A:A, A68, B:B, B68, C:C, C68)&gt;1, _xlfn.CONCAT("_", H68), ""))</f>
-        <v>STRAWBERRY_1A_9</v>
+        <f t="shared" ref="I68:I131" si="16">_xlfn.CONCAT("Level ", B68, " ", MID("ABC", C68 + 1, 1), "-Side", IF(A68="completion", " Complete", IF(A68="cassette", " Cassette", IF(A68="gemheart", " Crystal Heart", IF(A68="strawberry", _xlfn.CONCAT(" Strawberry ", H68+1), "")))))</f>
+        <v>Level 1 A-Side Strawberry 9</v>
       </c>
       <c r="J68">
         <f t="shared" si="14"/>
-        <v>8041009</v>
+        <v>8081008</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3111,12 +3111,12 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="16">$D$2</f>
+        <f t="shared" si="5"/>
         <v>8000000</v>
       </c>
       <c r="E69">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F69">
         <f t="shared" si="12"/>
@@ -3128,15 +3128,15 @@
       </c>
       <c r="H69">
         <f>COUNTIFS($A$2:A69, A69, $B$2:B69, B69, $C$2:C69, C69) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" t="str">
-        <f>_xlfn.CONCAT(UPPER(A69), "_", B69, MID("ABC", C69 + 1, 1), IF(COUNTIFS(A:A, A69, B:B, B69, C:C, C69)&gt;1, _xlfn.CONCAT("_", H69), ""))</f>
-        <v>STRAWBERRY_1A_10</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 10</v>
       </c>
       <c r="J69">
         <f t="shared" si="14"/>
-        <v>8041010</v>
+        <v>8081009</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3150,12 +3150,12 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D70:D133" si="17">$D$2</f>
         <v>8000000</v>
       </c>
       <c r="E70">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F70">
         <f t="shared" si="12"/>
@@ -3167,15 +3167,15 @@
       </c>
       <c r="H70">
         <f>COUNTIFS($A$2:A70, A70, $B$2:B70, B70, $C$2:C70, C70) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I70" t="str">
-        <f>_xlfn.CONCAT(UPPER(A70), "_", B70, MID("ABC", C70 + 1, 1), IF(COUNTIFS(A:A, A70, B:B, B70, C:C, C70)&gt;1, _xlfn.CONCAT("_", H70), ""))</f>
-        <v>STRAWBERRY_1A_11</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 11</v>
       </c>
       <c r="J70">
         <f t="shared" si="14"/>
-        <v>8041011</v>
+        <v>8081010</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3189,12 +3189,12 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E71">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F71">
         <f t="shared" si="12"/>
@@ -3206,15 +3206,15 @@
       </c>
       <c r="H71">
         <f>COUNTIFS($A$2:A71, A71, $B$2:B71, B71, $C$2:C71, C71) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" t="str">
-        <f>_xlfn.CONCAT(UPPER(A71), "_", B71, MID("ABC", C71 + 1, 1), IF(COUNTIFS(A:A, A71, B:B, B71, C:C, C71)&gt;1, _xlfn.CONCAT("_", H71), ""))</f>
-        <v>STRAWBERRY_1A_12</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 12</v>
       </c>
       <c r="J71">
         <f t="shared" si="14"/>
-        <v>8041012</v>
+        <v>8081011</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3228,12 +3228,12 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E72">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F72">
         <f t="shared" si="12"/>
@@ -3245,15 +3245,15 @@
       </c>
       <c r="H72">
         <f>COUNTIFS($A$2:A72, A72, $B$2:B72, B72, $C$2:C72, C72) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" t="str">
-        <f>_xlfn.CONCAT(UPPER(A72), "_", B72, MID("ABC", C72 + 1, 1), IF(COUNTIFS(A:A, A72, B:B, B72, C:C, C72)&gt;1, _xlfn.CONCAT("_", H72), ""))</f>
-        <v>STRAWBERRY_1A_13</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 13</v>
       </c>
       <c r="J72">
         <f t="shared" si="14"/>
-        <v>8041013</v>
+        <v>8081012</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3267,12 +3267,12 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E73">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F73">
         <f t="shared" si="12"/>
@@ -3284,15 +3284,15 @@
       </c>
       <c r="H73">
         <f>COUNTIFS($A$2:A73, A73, $B$2:B73, B73, $C$2:C73, C73) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" t="str">
-        <f>_xlfn.CONCAT(UPPER(A73), "_", B73, MID("ABC", C73 + 1, 1), IF(COUNTIFS(A:A, A73, B:B, B73, C:C, C73)&gt;1, _xlfn.CONCAT("_", H73), ""))</f>
-        <v>STRAWBERRY_1A_14</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 14</v>
       </c>
       <c r="J73">
         <f t="shared" si="14"/>
-        <v>8041014</v>
+        <v>8081013</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3306,12 +3306,12 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E74">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F74">
         <f t="shared" si="12"/>
@@ -3323,15 +3323,15 @@
       </c>
       <c r="H74">
         <f>COUNTIFS($A$2:A74, A74, $B$2:B74, B74, $C$2:C74, C74) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I74" t="str">
-        <f>_xlfn.CONCAT(UPPER(A74), "_", B74, MID("ABC", C74 + 1, 1), IF(COUNTIFS(A:A, A74, B:B, B74, C:C, C74)&gt;1, _xlfn.CONCAT("_", H74), ""))</f>
-        <v>STRAWBERRY_1A_15</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 15</v>
       </c>
       <c r="J74">
         <f t="shared" si="14"/>
-        <v>8041015</v>
+        <v>8081014</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3345,12 +3345,12 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E75">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F75">
         <f t="shared" si="12"/>
@@ -3362,15 +3362,15 @@
       </c>
       <c r="H75">
         <f>COUNTIFS($A$2:A75, A75, $B$2:B75, B75, $C$2:C75, C75) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" t="str">
-        <f>_xlfn.CONCAT(UPPER(A75), "_", B75, MID("ABC", C75 + 1, 1), IF(COUNTIFS(A:A, A75, B:B, B75, C:C, C75)&gt;1, _xlfn.CONCAT("_", H75), ""))</f>
-        <v>STRAWBERRY_1A_16</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 16</v>
       </c>
       <c r="J75">
         <f t="shared" si="14"/>
-        <v>8041016</v>
+        <v>8081015</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3384,12 +3384,12 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E76">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F76">
         <f t="shared" si="12"/>
@@ -3401,15 +3401,15 @@
       </c>
       <c r="H76">
         <f>COUNTIFS($A$2:A76, A76, $B$2:B76, B76, $C$2:C76, C76) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" t="str">
-        <f>_xlfn.CONCAT(UPPER(A76), "_", B76, MID("ABC", C76 + 1, 1), IF(COUNTIFS(A:A, A76, B:B, B76, C:C, C76)&gt;1, _xlfn.CONCAT("_", H76), ""))</f>
-        <v>STRAWBERRY_1A_17</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 17</v>
       </c>
       <c r="J76">
         <f t="shared" si="14"/>
-        <v>8041017</v>
+        <v>8081016</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3423,12 +3423,12 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E77">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F77">
         <f t="shared" si="12"/>
@@ -3440,15 +3440,15 @@
       </c>
       <c r="H77">
         <f>COUNTIFS($A$2:A77, A77, $B$2:B77, B77, $C$2:C77, C77) - 1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" t="str">
-        <f>_xlfn.CONCAT(UPPER(A77), "_", B77, MID("ABC", C77 + 1, 1), IF(COUNTIFS(A:A, A77, B:B, B77, C:C, C77)&gt;1, _xlfn.CONCAT("_", H77), ""))</f>
-        <v>STRAWBERRY_1A_18</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 18</v>
       </c>
       <c r="J77">
         <f t="shared" si="14"/>
-        <v>8041018</v>
+        <v>8081017</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E78">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F78">
         <f t="shared" si="12"/>
@@ -3479,15 +3479,15 @@
       </c>
       <c r="H78">
         <f>COUNTIFS($A$2:A78, A78, $B$2:B78, B78, $C$2:C78, C78) - 1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" t="str">
-        <f>_xlfn.CONCAT(UPPER(A78), "_", B78, MID("ABC", C78 + 1, 1), IF(COUNTIFS(A:A, A78, B:B, B78, C:C, C78)&gt;1, _xlfn.CONCAT("_", H78), ""))</f>
-        <v>STRAWBERRY_1A_19</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 19</v>
       </c>
       <c r="J78">
         <f t="shared" si="14"/>
-        <v>8041019</v>
+        <v>8081018</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3495,22 +3495,22 @@
         <v>13</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E79">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F79">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G79">
         <f t="shared" si="13"/>
@@ -3518,15 +3518,15 @@
       </c>
       <c r="H79">
         <f>COUNTIFS($A$2:A79, A79, $B$2:B79, B79, $C$2:C79, C79) - 1</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I79" t="str">
-        <f>_xlfn.CONCAT(UPPER(A79), "_", B79, MID("ABC", C79 + 1, 1), IF(COUNTIFS(A:A, A79, B:B, B79, C:C, C79)&gt;1, _xlfn.CONCAT("_", H79), ""))</f>
-        <v>STRAWBERRY_2A_0</v>
+        <f t="shared" si="16"/>
+        <v>Level 1 A-Side Strawberry 20</v>
       </c>
       <c r="J79">
         <f t="shared" si="14"/>
-        <v>8042000</v>
+        <v>8081019</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3540,12 +3540,12 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E80">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F80">
         <f t="shared" si="12"/>
@@ -3557,15 +3557,15 @@
       </c>
       <c r="H80">
         <f>COUNTIFS($A$2:A80, A80, $B$2:B80, B80, $C$2:C80, C80) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="str">
-        <f>_xlfn.CONCAT(UPPER(A80), "_", B80, MID("ABC", C80 + 1, 1), IF(COUNTIFS(A:A, A80, B:B, B80, C:C, C80)&gt;1, _xlfn.CONCAT("_", H80), ""))</f>
-        <v>STRAWBERRY_2A_1</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 1</v>
       </c>
       <c r="J80">
         <f t="shared" si="14"/>
-        <v>8042001</v>
+        <v>8082000</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3579,12 +3579,12 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E81">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F81">
         <f t="shared" si="12"/>
@@ -3596,15 +3596,15 @@
       </c>
       <c r="H81">
         <f>COUNTIFS($A$2:A81, A81, $B$2:B81, B81, $C$2:C81, C81) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="str">
-        <f>_xlfn.CONCAT(UPPER(A81), "_", B81, MID("ABC", C81 + 1, 1), IF(COUNTIFS(A:A, A81, B:B, B81, C:C, C81)&gt;1, _xlfn.CONCAT("_", H81), ""))</f>
-        <v>STRAWBERRY_2A_2</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 2</v>
       </c>
       <c r="J81">
         <f t="shared" si="14"/>
-        <v>8042002</v>
+        <v>8082001</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3618,12 +3618,12 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E82">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F82">
         <f t="shared" si="12"/>
@@ -3635,15 +3635,15 @@
       </c>
       <c r="H82">
         <f>COUNTIFS($A$2:A82, A82, $B$2:B82, B82, $C$2:C82, C82) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="str">
-        <f>_xlfn.CONCAT(UPPER(A82), "_", B82, MID("ABC", C82 + 1, 1), IF(COUNTIFS(A:A, A82, B:B, B82, C:C, C82)&gt;1, _xlfn.CONCAT("_", H82), ""))</f>
-        <v>STRAWBERRY_2A_3</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 3</v>
       </c>
       <c r="J82">
         <f t="shared" si="14"/>
-        <v>8042003</v>
+        <v>8082002</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3657,12 +3657,12 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E83">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F83">
         <f t="shared" si="12"/>
@@ -3674,15 +3674,15 @@
       </c>
       <c r="H83">
         <f>COUNTIFS($A$2:A83, A83, $B$2:B83, B83, $C$2:C83, C83) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" t="str">
-        <f>_xlfn.CONCAT(UPPER(A83), "_", B83, MID("ABC", C83 + 1, 1), IF(COUNTIFS(A:A, A83, B:B, B83, C:C, C83)&gt;1, _xlfn.CONCAT("_", H83), ""))</f>
-        <v>STRAWBERRY_2A_4</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 4</v>
       </c>
       <c r="J83">
         <f t="shared" si="14"/>
-        <v>8042004</v>
+        <v>8082003</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3696,12 +3696,12 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E84">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F84">
         <f t="shared" si="12"/>
@@ -3713,15 +3713,15 @@
       </c>
       <c r="H84">
         <f>COUNTIFS($A$2:A84, A84, $B$2:B84, B84, $C$2:C84, C84) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I84" t="str">
-        <f>_xlfn.CONCAT(UPPER(A84), "_", B84, MID("ABC", C84 + 1, 1), IF(COUNTIFS(A:A, A84, B:B, B84, C:C, C84)&gt;1, _xlfn.CONCAT("_", H84), ""))</f>
-        <v>STRAWBERRY_2A_5</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 5</v>
       </c>
       <c r="J84">
         <f t="shared" si="14"/>
-        <v>8042005</v>
+        <v>8082004</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3735,12 +3735,12 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E85">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F85">
         <f t="shared" si="12"/>
@@ -3752,15 +3752,15 @@
       </c>
       <c r="H85">
         <f>COUNTIFS($A$2:A85, A85, $B$2:B85, B85, $C$2:C85, C85) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I85" t="str">
-        <f>_xlfn.CONCAT(UPPER(A85), "_", B85, MID("ABC", C85 + 1, 1), IF(COUNTIFS(A:A, A85, B:B, B85, C:C, C85)&gt;1, _xlfn.CONCAT("_", H85), ""))</f>
-        <v>STRAWBERRY_2A_6</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 6</v>
       </c>
       <c r="J85">
         <f t="shared" si="14"/>
-        <v>8042006</v>
+        <v>8082005</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3774,12 +3774,12 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E86">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F86">
         <f t="shared" si="12"/>
@@ -3791,15 +3791,15 @@
       </c>
       <c r="H86">
         <f>COUNTIFS($A$2:A86, A86, $B$2:B86, B86, $C$2:C86, C86) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86" t="str">
-        <f>_xlfn.CONCAT(UPPER(A86), "_", B86, MID("ABC", C86 + 1, 1), IF(COUNTIFS(A:A, A86, B:B, B86, C:C, C86)&gt;1, _xlfn.CONCAT("_", H86), ""))</f>
-        <v>STRAWBERRY_2A_7</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 7</v>
       </c>
       <c r="J86">
         <f t="shared" si="14"/>
-        <v>8042007</v>
+        <v>8082006</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3813,12 +3813,12 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E87">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F87">
         <f t="shared" si="12"/>
@@ -3830,15 +3830,15 @@
       </c>
       <c r="H87">
         <f>COUNTIFS($A$2:A87, A87, $B$2:B87, B87, $C$2:C87, C87) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I87" t="str">
-        <f>_xlfn.CONCAT(UPPER(A87), "_", B87, MID("ABC", C87 + 1, 1), IF(COUNTIFS(A:A, A87, B:B, B87, C:C, C87)&gt;1, _xlfn.CONCAT("_", H87), ""))</f>
-        <v>STRAWBERRY_2A_8</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 8</v>
       </c>
       <c r="J87">
         <f t="shared" si="14"/>
-        <v>8042008</v>
+        <v>8082007</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3852,12 +3852,12 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E88">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F88">
         <f t="shared" si="12"/>
@@ -3869,15 +3869,15 @@
       </c>
       <c r="H88">
         <f>COUNTIFS($A$2:A88, A88, $B$2:B88, B88, $C$2:C88, C88) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I88" t="str">
-        <f>_xlfn.CONCAT(UPPER(A88), "_", B88, MID("ABC", C88 + 1, 1), IF(COUNTIFS(A:A, A88, B:B, B88, C:C, C88)&gt;1, _xlfn.CONCAT("_", H88), ""))</f>
-        <v>STRAWBERRY_2A_9</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 9</v>
       </c>
       <c r="J88">
         <f t="shared" si="14"/>
-        <v>8042009</v>
+        <v>8082008</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3891,12 +3891,12 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E89">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F89">
         <f t="shared" si="12"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="H89">
         <f>COUNTIFS($A$2:A89, A89, $B$2:B89, B89, $C$2:C89, C89) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I89" t="str">
-        <f>_xlfn.CONCAT(UPPER(A89), "_", B89, MID("ABC", C89 + 1, 1), IF(COUNTIFS(A:A, A89, B:B, B89, C:C, C89)&gt;1, _xlfn.CONCAT("_", H89), ""))</f>
-        <v>STRAWBERRY_2A_10</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 10</v>
       </c>
       <c r="J89">
         <f t="shared" si="14"/>
-        <v>8042010</v>
+        <v>8082009</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3930,12 +3930,12 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E90">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F90">
         <f t="shared" si="12"/>
@@ -3947,15 +3947,15 @@
       </c>
       <c r="H90">
         <f>COUNTIFS($A$2:A90, A90, $B$2:B90, B90, $C$2:C90, C90) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I90" t="str">
-        <f>_xlfn.CONCAT(UPPER(A90), "_", B90, MID("ABC", C90 + 1, 1), IF(COUNTIFS(A:A, A90, B:B, B90, C:C, C90)&gt;1, _xlfn.CONCAT("_", H90), ""))</f>
-        <v>STRAWBERRY_2A_11</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 11</v>
       </c>
       <c r="J90">
         <f t="shared" si="14"/>
-        <v>8042011</v>
+        <v>8082010</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3969,12 +3969,12 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E91">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F91">
         <f t="shared" si="12"/>
@@ -3986,15 +3986,15 @@
       </c>
       <c r="H91">
         <f>COUNTIFS($A$2:A91, A91, $B$2:B91, B91, $C$2:C91, C91) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" t="str">
-        <f>_xlfn.CONCAT(UPPER(A91), "_", B91, MID("ABC", C91 + 1, 1), IF(COUNTIFS(A:A, A91, B:B, B91, C:C, C91)&gt;1, _xlfn.CONCAT("_", H91), ""))</f>
-        <v>STRAWBERRY_2A_12</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 12</v>
       </c>
       <c r="J91">
         <f t="shared" si="14"/>
-        <v>8042012</v>
+        <v>8082011</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -4008,12 +4008,12 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E92">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F92">
         <f t="shared" si="12"/>
@@ -4025,15 +4025,15 @@
       </c>
       <c r="H92">
         <f>COUNTIFS($A$2:A92, A92, $B$2:B92, B92, $C$2:C92, C92) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" t="str">
-        <f>_xlfn.CONCAT(UPPER(A92), "_", B92, MID("ABC", C92 + 1, 1), IF(COUNTIFS(A:A, A92, B:B, B92, C:C, C92)&gt;1, _xlfn.CONCAT("_", H92), ""))</f>
-        <v>STRAWBERRY_2A_13</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 13</v>
       </c>
       <c r="J92">
         <f t="shared" si="14"/>
-        <v>8042013</v>
+        <v>8082012</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -4047,12 +4047,12 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E93">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F93">
         <f t="shared" si="12"/>
@@ -4064,15 +4064,15 @@
       </c>
       <c r="H93">
         <f>COUNTIFS($A$2:A93, A93, $B$2:B93, B93, $C$2:C93, C93) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I93" t="str">
-        <f>_xlfn.CONCAT(UPPER(A93), "_", B93, MID("ABC", C93 + 1, 1), IF(COUNTIFS(A:A, A93, B:B, B93, C:C, C93)&gt;1, _xlfn.CONCAT("_", H93), ""))</f>
-        <v>STRAWBERRY_2A_14</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 14</v>
       </c>
       <c r="J93">
         <f t="shared" si="14"/>
-        <v>8042014</v>
+        <v>8082013</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -4086,12 +4086,12 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E94">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F94">
         <f t="shared" si="12"/>
@@ -4103,15 +4103,15 @@
       </c>
       <c r="H94">
         <f>COUNTIFS($A$2:A94, A94, $B$2:B94, B94, $C$2:C94, C94) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I94" t="str">
-        <f>_xlfn.CONCAT(UPPER(A94), "_", B94, MID("ABC", C94 + 1, 1), IF(COUNTIFS(A:A, A94, B:B, B94, C:C, C94)&gt;1, _xlfn.CONCAT("_", H94), ""))</f>
-        <v>STRAWBERRY_2A_15</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 15</v>
       </c>
       <c r="J94">
         <f t="shared" si="14"/>
-        <v>8042015</v>
+        <v>8082014</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -4125,12 +4125,12 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E95">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F95">
         <f t="shared" si="12"/>
@@ -4142,15 +4142,15 @@
       </c>
       <c r="H95">
         <f>COUNTIFS($A$2:A95, A95, $B$2:B95, B95, $C$2:C95, C95) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" t="str">
-        <f>_xlfn.CONCAT(UPPER(A95), "_", B95, MID("ABC", C95 + 1, 1), IF(COUNTIFS(A:A, A95, B:B, B95, C:C, C95)&gt;1, _xlfn.CONCAT("_", H95), ""))</f>
-        <v>STRAWBERRY_2A_16</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 16</v>
       </c>
       <c r="J95">
         <f t="shared" si="14"/>
-        <v>8042016</v>
+        <v>8082015</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -4164,12 +4164,12 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E96">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F96">
         <f t="shared" si="12"/>
@@ -4181,15 +4181,15 @@
       </c>
       <c r="H96">
         <f>COUNTIFS($A$2:A96, A96, $B$2:B96, B96, $C$2:C96, C96) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I96" t="str">
-        <f>_xlfn.CONCAT(UPPER(A96), "_", B96, MID("ABC", C96 + 1, 1), IF(COUNTIFS(A:A, A96, B:B, B96, C:C, C96)&gt;1, _xlfn.CONCAT("_", H96), ""))</f>
-        <v>STRAWBERRY_2A_17</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 17</v>
       </c>
       <c r="J96">
         <f t="shared" si="14"/>
-        <v>8042017</v>
+        <v>8082016</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -4197,22 +4197,22 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E97">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F97">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G97">
         <f t="shared" si="13"/>
@@ -4220,15 +4220,15 @@
       </c>
       <c r="H97">
         <f>COUNTIFS($A$2:A97, A97, $B$2:B97, B97, $C$2:C97, C97) - 1</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I97" t="str">
-        <f>_xlfn.CONCAT(UPPER(A97), "_", B97, MID("ABC", C97 + 1, 1), IF(COUNTIFS(A:A, A97, B:B, B97, C:C, C97)&gt;1, _xlfn.CONCAT("_", H97), ""))</f>
-        <v>STRAWBERRY_3A_0</v>
+        <f t="shared" si="16"/>
+        <v>Level 2 A-Side Strawberry 18</v>
       </c>
       <c r="J97">
         <f t="shared" si="14"/>
-        <v>8043000</v>
+        <v>8082017</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -4242,12 +4242,12 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E98">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F98">
         <f t="shared" si="12"/>
@@ -4259,15 +4259,15 @@
       </c>
       <c r="H98">
         <f>COUNTIFS($A$2:A98, A98, $B$2:B98, B98, $C$2:C98, C98) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="str">
-        <f>_xlfn.CONCAT(UPPER(A98), "_", B98, MID("ABC", C98 + 1, 1), IF(COUNTIFS(A:A, A98, B:B, B98, C:C, C98)&gt;1, _xlfn.CONCAT("_", H98), ""))</f>
-        <v>STRAWBERRY_3A_1</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 1</v>
       </c>
       <c r="J98">
         <f t="shared" si="14"/>
-        <v>8043001</v>
+        <v>8083000</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -4281,12 +4281,12 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E99">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F99">
         <f t="shared" si="12"/>
@@ -4298,15 +4298,15 @@
       </c>
       <c r="H99">
         <f>COUNTIFS($A$2:A99, A99, $B$2:B99, B99, $C$2:C99, C99) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="str">
-        <f>_xlfn.CONCAT(UPPER(A99), "_", B99, MID("ABC", C99 + 1, 1), IF(COUNTIFS(A:A, A99, B:B, B99, C:C, C99)&gt;1, _xlfn.CONCAT("_", H99), ""))</f>
-        <v>STRAWBERRY_3A_2</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 2</v>
       </c>
       <c r="J99">
         <f t="shared" si="14"/>
-        <v>8043002</v>
+        <v>8083001</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -4320,12 +4320,12 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E100">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F100">
         <f t="shared" si="12"/>
@@ -4337,15 +4337,15 @@
       </c>
       <c r="H100">
         <f>COUNTIFS($A$2:A100, A100, $B$2:B100, B100, $C$2:C100, C100) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="str">
-        <f>_xlfn.CONCAT(UPPER(A100), "_", B100, MID("ABC", C100 + 1, 1), IF(COUNTIFS(A:A, A100, B:B, B100, C:C, C100)&gt;1, _xlfn.CONCAT("_", H100), ""))</f>
-        <v>STRAWBERRY_3A_3</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 3</v>
       </c>
       <c r="J100">
         <f t="shared" si="14"/>
-        <v>8043003</v>
+        <v>8083002</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -4359,12 +4359,12 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E101">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F101">
         <f t="shared" si="12"/>
@@ -4376,15 +4376,15 @@
       </c>
       <c r="H101">
         <f>COUNTIFS($A$2:A101, A101, $B$2:B101, B101, $C$2:C101, C101) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" t="str">
-        <f>_xlfn.CONCAT(UPPER(A101), "_", B101, MID("ABC", C101 + 1, 1), IF(COUNTIFS(A:A, A101, B:B, B101, C:C, C101)&gt;1, _xlfn.CONCAT("_", H101), ""))</f>
-        <v>STRAWBERRY_3A_4</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 4</v>
       </c>
       <c r="J101">
         <f t="shared" si="14"/>
-        <v>8043004</v>
+        <v>8083003</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -4398,12 +4398,12 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E102">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F102">
         <f t="shared" si="12"/>
@@ -4415,15 +4415,15 @@
       </c>
       <c r="H102">
         <f>COUNTIFS($A$2:A102, A102, $B$2:B102, B102, $C$2:C102, C102) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I102" t="str">
-        <f>_xlfn.CONCAT(UPPER(A102), "_", B102, MID("ABC", C102 + 1, 1), IF(COUNTIFS(A:A, A102, B:B, B102, C:C, C102)&gt;1, _xlfn.CONCAT("_", H102), ""))</f>
-        <v>STRAWBERRY_3A_5</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 5</v>
       </c>
       <c r="J102">
         <f t="shared" si="14"/>
-        <v>8043005</v>
+        <v>8083004</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4437,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E103">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F103">
         <f t="shared" si="12"/>
@@ -4454,15 +4454,15 @@
       </c>
       <c r="H103">
         <f>COUNTIFS($A$2:A103, A103, $B$2:B103, B103, $C$2:C103, C103) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I103" t="str">
-        <f>_xlfn.CONCAT(UPPER(A103), "_", B103, MID("ABC", C103 + 1, 1), IF(COUNTIFS(A:A, A103, B:B, B103, C:C, C103)&gt;1, _xlfn.CONCAT("_", H103), ""))</f>
-        <v>STRAWBERRY_3A_6</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 6</v>
       </c>
       <c r="J103">
         <f t="shared" si="14"/>
-        <v>8043006</v>
+        <v>8083005</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4476,12 +4476,12 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E104">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F104">
         <f t="shared" si="12"/>
@@ -4493,15 +4493,15 @@
       </c>
       <c r="H104">
         <f>COUNTIFS($A$2:A104, A104, $B$2:B104, B104, $C$2:C104, C104) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I104" t="str">
-        <f>_xlfn.CONCAT(UPPER(A104), "_", B104, MID("ABC", C104 + 1, 1), IF(COUNTIFS(A:A, A104, B:B, B104, C:C, C104)&gt;1, _xlfn.CONCAT("_", H104), ""))</f>
-        <v>STRAWBERRY_3A_7</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 7</v>
       </c>
       <c r="J104">
         <f t="shared" si="14"/>
-        <v>8043007</v>
+        <v>8083006</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4515,12 +4515,12 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E105">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F105">
         <f t="shared" si="12"/>
@@ -4532,15 +4532,15 @@
       </c>
       <c r="H105">
         <f>COUNTIFS($A$2:A105, A105, $B$2:B105, B105, $C$2:C105, C105) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I105" t="str">
-        <f>_xlfn.CONCAT(UPPER(A105), "_", B105, MID("ABC", C105 + 1, 1), IF(COUNTIFS(A:A, A105, B:B, B105, C:C, C105)&gt;1, _xlfn.CONCAT("_", H105), ""))</f>
-        <v>STRAWBERRY_3A_8</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 8</v>
       </c>
       <c r="J105">
         <f t="shared" si="14"/>
-        <v>8043008</v>
+        <v>8083007</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -4554,12 +4554,12 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E106">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F106">
         <f t="shared" si="12"/>
@@ -4571,15 +4571,15 @@
       </c>
       <c r="H106">
         <f>COUNTIFS($A$2:A106, A106, $B$2:B106, B106, $C$2:C106, C106) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I106" t="str">
-        <f>_xlfn.CONCAT(UPPER(A106), "_", B106, MID("ABC", C106 + 1, 1), IF(COUNTIFS(A:A, A106, B:B, B106, C:C, C106)&gt;1, _xlfn.CONCAT("_", H106), ""))</f>
-        <v>STRAWBERRY_3A_9</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 9</v>
       </c>
       <c r="J106">
         <f t="shared" si="14"/>
-        <v>8043009</v>
+        <v>8083008</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -4593,12 +4593,12 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E107">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F107">
         <f t="shared" si="12"/>
@@ -4610,15 +4610,15 @@
       </c>
       <c r="H107">
         <f>COUNTIFS($A$2:A107, A107, $B$2:B107, B107, $C$2:C107, C107) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I107" t="str">
-        <f>_xlfn.CONCAT(UPPER(A107), "_", B107, MID("ABC", C107 + 1, 1), IF(COUNTIFS(A:A, A107, B:B, B107, C:C, C107)&gt;1, _xlfn.CONCAT("_", H107), ""))</f>
-        <v>STRAWBERRY_3A_10</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 10</v>
       </c>
       <c r="J107">
         <f t="shared" si="14"/>
-        <v>8043010</v>
+        <v>8083009</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4632,12 +4632,12 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E108">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F108">
         <f t="shared" si="12"/>
@@ -4649,15 +4649,15 @@
       </c>
       <c r="H108">
         <f>COUNTIFS($A$2:A108, A108, $B$2:B108, B108, $C$2:C108, C108) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I108" t="str">
-        <f>_xlfn.CONCAT(UPPER(A108), "_", B108, MID("ABC", C108 + 1, 1), IF(COUNTIFS(A:A, A108, B:B, B108, C:C, C108)&gt;1, _xlfn.CONCAT("_", H108), ""))</f>
-        <v>STRAWBERRY_3A_11</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 11</v>
       </c>
       <c r="J108">
         <f t="shared" si="14"/>
-        <v>8043011</v>
+        <v>8083010</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4671,12 +4671,12 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E109">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F109">
         <f t="shared" si="12"/>
@@ -4688,15 +4688,15 @@
       </c>
       <c r="H109">
         <f>COUNTIFS($A$2:A109, A109, $B$2:B109, B109, $C$2:C109, C109) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" t="str">
-        <f>_xlfn.CONCAT(UPPER(A109), "_", B109, MID("ABC", C109 + 1, 1), IF(COUNTIFS(A:A, A109, B:B, B109, C:C, C109)&gt;1, _xlfn.CONCAT("_", H109), ""))</f>
-        <v>STRAWBERRY_3A_12</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 12</v>
       </c>
       <c r="J109">
         <f t="shared" si="14"/>
-        <v>8043012</v>
+        <v>8083011</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4710,12 +4710,12 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E110">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F110">
         <f t="shared" si="12"/>
@@ -4727,15 +4727,15 @@
       </c>
       <c r="H110">
         <f>COUNTIFS($A$2:A110, A110, $B$2:B110, B110, $C$2:C110, C110) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I110" t="str">
-        <f>_xlfn.CONCAT(UPPER(A110), "_", B110, MID("ABC", C110 + 1, 1), IF(COUNTIFS(A:A, A110, B:B, B110, C:C, C110)&gt;1, _xlfn.CONCAT("_", H110), ""))</f>
-        <v>STRAWBERRY_3A_13</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 13</v>
       </c>
       <c r="J110">
         <f t="shared" si="14"/>
-        <v>8043013</v>
+        <v>8083012</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4749,12 +4749,12 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E111">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F111">
         <f t="shared" si="12"/>
@@ -4766,15 +4766,15 @@
       </c>
       <c r="H111">
         <f>COUNTIFS($A$2:A111, A111, $B$2:B111, B111, $C$2:C111, C111) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I111" t="str">
-        <f>_xlfn.CONCAT(UPPER(A111), "_", B111, MID("ABC", C111 + 1, 1), IF(COUNTIFS(A:A, A111, B:B, B111, C:C, C111)&gt;1, _xlfn.CONCAT("_", H111), ""))</f>
-        <v>STRAWBERRY_3A_14</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 14</v>
       </c>
       <c r="J111">
         <f t="shared" si="14"/>
-        <v>8043014</v>
+        <v>8083013</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4788,12 +4788,12 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E112">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F112">
         <f t="shared" si="12"/>
@@ -4805,15 +4805,15 @@
       </c>
       <c r="H112">
         <f>COUNTIFS($A$2:A112, A112, $B$2:B112, B112, $C$2:C112, C112) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I112" t="str">
-        <f>_xlfn.CONCAT(UPPER(A112), "_", B112, MID("ABC", C112 + 1, 1), IF(COUNTIFS(A:A, A112, B:B, B112, C:C, C112)&gt;1, _xlfn.CONCAT("_", H112), ""))</f>
-        <v>STRAWBERRY_3A_15</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 15</v>
       </c>
       <c r="J112">
         <f t="shared" si="14"/>
-        <v>8043015</v>
+        <v>8083014</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4827,12 +4827,12 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E113">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F113">
         <f t="shared" si="12"/>
@@ -4844,15 +4844,15 @@
       </c>
       <c r="H113">
         <f>COUNTIFS($A$2:A113, A113, $B$2:B113, B113, $C$2:C113, C113) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" t="str">
-        <f>_xlfn.CONCAT(UPPER(A113), "_", B113, MID("ABC", C113 + 1, 1), IF(COUNTIFS(A:A, A113, B:B, B113, C:C, C113)&gt;1, _xlfn.CONCAT("_", H113), ""))</f>
-        <v>STRAWBERRY_3A_16</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 16</v>
       </c>
       <c r="J113">
         <f t="shared" si="14"/>
-        <v>8043016</v>
+        <v>8083015</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4866,12 +4866,12 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E114">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F114">
         <f t="shared" si="12"/>
@@ -4883,15 +4883,15 @@
       </c>
       <c r="H114">
         <f>COUNTIFS($A$2:A114, A114, $B$2:B114, B114, $C$2:C114, C114) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" t="str">
-        <f>_xlfn.CONCAT(UPPER(A114), "_", B114, MID("ABC", C114 + 1, 1), IF(COUNTIFS(A:A, A114, B:B, B114, C:C, C114)&gt;1, _xlfn.CONCAT("_", H114), ""))</f>
-        <v>STRAWBERRY_3A_17</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 17</v>
       </c>
       <c r="J114">
         <f t="shared" si="14"/>
-        <v>8043017</v>
+        <v>8083016</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4905,12 +4905,12 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E115">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F115">
         <f t="shared" si="12"/>
@@ -4922,15 +4922,15 @@
       </c>
       <c r="H115">
         <f>COUNTIFS($A$2:A115, A115, $B$2:B115, B115, $C$2:C115, C115) - 1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I115" t="str">
-        <f>_xlfn.CONCAT(UPPER(A115), "_", B115, MID("ABC", C115 + 1, 1), IF(COUNTIFS(A:A, A115, B:B, B115, C:C, C115)&gt;1, _xlfn.CONCAT("_", H115), ""))</f>
-        <v>STRAWBERRY_3A_18</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 18</v>
       </c>
       <c r="J115">
         <f t="shared" si="14"/>
-        <v>8043018</v>
+        <v>8083017</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4944,12 +4944,12 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E116">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F116">
         <f t="shared" si="12"/>
@@ -4961,15 +4961,15 @@
       </c>
       <c r="H116">
         <f>COUNTIFS($A$2:A116, A116, $B$2:B116, B116, $C$2:C116, C116) - 1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I116" t="str">
-        <f>_xlfn.CONCAT(UPPER(A116), "_", B116, MID("ABC", C116 + 1, 1), IF(COUNTIFS(A:A, A116, B:B, B116, C:C, C116)&gt;1, _xlfn.CONCAT("_", H116), ""))</f>
-        <v>STRAWBERRY_3A_19</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 19</v>
       </c>
       <c r="J116">
         <f t="shared" si="14"/>
-        <v>8043019</v>
+        <v>8083018</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4983,12 +4983,12 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E117">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F117">
         <f t="shared" si="12"/>
@@ -5000,15 +5000,15 @@
       </c>
       <c r="H117">
         <f>COUNTIFS($A$2:A117, A117, $B$2:B117, B117, $C$2:C117, C117) - 1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I117" t="str">
-        <f>_xlfn.CONCAT(UPPER(A117), "_", B117, MID("ABC", C117 + 1, 1), IF(COUNTIFS(A:A, A117, B:B, B117, C:C, C117)&gt;1, _xlfn.CONCAT("_", H117), ""))</f>
-        <v>STRAWBERRY_3A_20</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 20</v>
       </c>
       <c r="J117">
         <f t="shared" si="14"/>
-        <v>8043020</v>
+        <v>8083019</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -5022,12 +5022,12 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E118">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F118">
         <f t="shared" si="12"/>
@@ -5039,15 +5039,15 @@
       </c>
       <c r="H118">
         <f>COUNTIFS($A$2:A118, A118, $B$2:B118, B118, $C$2:C118, C118) - 1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I118" t="str">
-        <f>_xlfn.CONCAT(UPPER(A118), "_", B118, MID("ABC", C118 + 1, 1), IF(COUNTIFS(A:A, A118, B:B, B118, C:C, C118)&gt;1, _xlfn.CONCAT("_", H118), ""))</f>
-        <v>STRAWBERRY_3A_21</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 21</v>
       </c>
       <c r="J118">
         <f t="shared" si="14"/>
-        <v>8043021</v>
+        <v>8083020</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -5061,12 +5061,12 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E119">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F119">
         <f t="shared" si="12"/>
@@ -5078,15 +5078,15 @@
       </c>
       <c r="H119">
         <f>COUNTIFS($A$2:A119, A119, $B$2:B119, B119, $C$2:C119, C119) - 1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I119" t="str">
-        <f>_xlfn.CONCAT(UPPER(A119), "_", B119, MID("ABC", C119 + 1, 1), IF(COUNTIFS(A:A, A119, B:B, B119, C:C, C119)&gt;1, _xlfn.CONCAT("_", H119), ""))</f>
-        <v>STRAWBERRY_3A_22</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 22</v>
       </c>
       <c r="J119">
         <f t="shared" si="14"/>
-        <v>8043022</v>
+        <v>8083021</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -5100,12 +5100,12 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E120">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F120">
         <f t="shared" si="12"/>
@@ -5117,15 +5117,15 @@
       </c>
       <c r="H120">
         <f>COUNTIFS($A$2:A120, A120, $B$2:B120, B120, $C$2:C120, C120) - 1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I120" t="str">
-        <f>_xlfn.CONCAT(UPPER(A120), "_", B120, MID("ABC", C120 + 1, 1), IF(COUNTIFS(A:A, A120, B:B, B120, C:C, C120)&gt;1, _xlfn.CONCAT("_", H120), ""))</f>
-        <v>STRAWBERRY_3A_23</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 23</v>
       </c>
       <c r="J120">
         <f t="shared" si="14"/>
-        <v>8043023</v>
+        <v>8083022</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -5139,12 +5139,12 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E121">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F121">
         <f t="shared" si="12"/>
@@ -5156,15 +5156,15 @@
       </c>
       <c r="H121">
         <f>COUNTIFS($A$2:A121, A121, $B$2:B121, B121, $C$2:C121, C121) - 1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I121" t="str">
-        <f>_xlfn.CONCAT(UPPER(A121), "_", B121, MID("ABC", C121 + 1, 1), IF(COUNTIFS(A:A, A121, B:B, B121, C:C, C121)&gt;1, _xlfn.CONCAT("_", H121), ""))</f>
-        <v>STRAWBERRY_3A_24</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 24</v>
       </c>
       <c r="J121">
         <f t="shared" si="14"/>
-        <v>8043024</v>
+        <v>8083023</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -5172,22 +5172,22 @@
         <v>13</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E122">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F122">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G122">
         <f t="shared" si="13"/>
@@ -5195,15 +5195,15 @@
       </c>
       <c r="H122">
         <f>COUNTIFS($A$2:A122, A122, $B$2:B122, B122, $C$2:C122, C122) - 1</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I122" t="str">
-        <f>_xlfn.CONCAT(UPPER(A122), "_", B122, MID("ABC", C122 + 1, 1), IF(COUNTIFS(A:A, A122, B:B, B122, C:C, C122)&gt;1, _xlfn.CONCAT("_", H122), ""))</f>
-        <v>STRAWBERRY_4A_0</v>
+        <f t="shared" si="16"/>
+        <v>Level 3 A-Side Strawberry 25</v>
       </c>
       <c r="J122">
         <f t="shared" si="14"/>
-        <v>8044000</v>
+        <v>8083024</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -5217,32 +5217,32 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E123">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F123">
-        <f t="shared" ref="F123:F186" si="17">B123*1000</f>
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
       <c r="G123">
-        <f t="shared" ref="G123:G186" si="18">C123*100</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H123">
         <f>COUNTIFS($A$2:A123, A123, $B$2:B123, B123, $C$2:C123, C123) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="str">
-        <f>_xlfn.CONCAT(UPPER(A123), "_", B123, MID("ABC", C123 + 1, 1), IF(COUNTIFS(A:A, A123, B:B, B123, C:C, C123)&gt;1, _xlfn.CONCAT("_", H123), ""))</f>
-        <v>STRAWBERRY_4A_1</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 1</v>
       </c>
       <c r="J123">
-        <f t="shared" ref="J123:J186" si="19">SUM(D123:H123)</f>
-        <v>8044001</v>
+        <f t="shared" si="14"/>
+        <v>8084000</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -5256,32 +5256,32 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E124">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F124">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F124:F187" si="18">B124*1000</f>
         <v>4000</v>
       </c>
       <c r="G124">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G124:G187" si="19">C124*100</f>
         <v>0</v>
       </c>
       <c r="H124">
         <f>COUNTIFS($A$2:A124, A124, $B$2:B124, B124, $C$2:C124, C124) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="str">
-        <f>_xlfn.CONCAT(UPPER(A124), "_", B124, MID("ABC", C124 + 1, 1), IF(COUNTIFS(A:A, A124, B:B, B124, C:C, C124)&gt;1, _xlfn.CONCAT("_", H124), ""))</f>
-        <v>STRAWBERRY_4A_2</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 2</v>
       </c>
       <c r="J124">
-        <f t="shared" si="19"/>
-        <v>8044002</v>
+        <f t="shared" ref="J124:J187" si="20">SUM(D124:H124)</f>
+        <v>8084001</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -5295,32 +5295,32 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E125">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H125">
         <f>COUNTIFS($A$2:A125, A125, $B$2:B125, B125, $C$2:C125, C125) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="str">
-        <f>_xlfn.CONCAT(UPPER(A125), "_", B125, MID("ABC", C125 + 1, 1), IF(COUNTIFS(A:A, A125, B:B, B125, C:C, C125)&gt;1, _xlfn.CONCAT("_", H125), ""))</f>
-        <v>STRAWBERRY_4A_3</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 3</v>
       </c>
       <c r="J125">
-        <f t="shared" si="19"/>
-        <v>8044003</v>
+        <f t="shared" si="20"/>
+        <v>8084002</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -5334,32 +5334,32 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E126">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H126">
         <f>COUNTIFS($A$2:A126, A126, $B$2:B126, B126, $C$2:C126, C126) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I126" t="str">
-        <f>_xlfn.CONCAT(UPPER(A126), "_", B126, MID("ABC", C126 + 1, 1), IF(COUNTIFS(A:A, A126, B:B, B126, C:C, C126)&gt;1, _xlfn.CONCAT("_", H126), ""))</f>
-        <v>STRAWBERRY_4A_4</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 4</v>
       </c>
       <c r="J126">
-        <f t="shared" si="19"/>
-        <v>8044004</v>
+        <f t="shared" si="20"/>
+        <v>8084003</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -5373,32 +5373,32 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E127">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H127">
         <f>COUNTIFS($A$2:A127, A127, $B$2:B127, B127, $C$2:C127, C127) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I127" t="str">
-        <f>_xlfn.CONCAT(UPPER(A127), "_", B127, MID("ABC", C127 + 1, 1), IF(COUNTIFS(A:A, A127, B:B, B127, C:C, C127)&gt;1, _xlfn.CONCAT("_", H127), ""))</f>
-        <v>STRAWBERRY_4A_5</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 5</v>
       </c>
       <c r="J127">
-        <f t="shared" si="19"/>
-        <v>8044005</v>
+        <f t="shared" si="20"/>
+        <v>8084004</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -5412,32 +5412,32 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E128">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H128">
         <f>COUNTIFS($A$2:A128, A128, $B$2:B128, B128, $C$2:C128, C128) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I128" t="str">
-        <f>_xlfn.CONCAT(UPPER(A128), "_", B128, MID("ABC", C128 + 1, 1), IF(COUNTIFS(A:A, A128, B:B, B128, C:C, C128)&gt;1, _xlfn.CONCAT("_", H128), ""))</f>
-        <v>STRAWBERRY_4A_6</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 6</v>
       </c>
       <c r="J128">
-        <f t="shared" si="19"/>
-        <v>8044006</v>
+        <f t="shared" si="20"/>
+        <v>8084005</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -5451,32 +5451,32 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E129">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H129">
         <f>COUNTIFS($A$2:A129, A129, $B$2:B129, B129, $C$2:C129, C129) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I129" t="str">
-        <f>_xlfn.CONCAT(UPPER(A129), "_", B129, MID("ABC", C129 + 1, 1), IF(COUNTIFS(A:A, A129, B:B, B129, C:C, C129)&gt;1, _xlfn.CONCAT("_", H129), ""))</f>
-        <v>STRAWBERRY_4A_7</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 7</v>
       </c>
       <c r="J129">
-        <f t="shared" si="19"/>
-        <v>8044007</v>
+        <f t="shared" si="20"/>
+        <v>8084006</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -5490,32 +5490,32 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E130">
         <f t="shared" si="15"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G130">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H130">
         <f>COUNTIFS($A$2:A130, A130, $B$2:B130, B130, $C$2:C130, C130) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I130" t="str">
-        <f>_xlfn.CONCAT(UPPER(A130), "_", B130, MID("ABC", C130 + 1, 1), IF(COUNTIFS(A:A, A130, B:B, B130, C:C, C130)&gt;1, _xlfn.CONCAT("_", H130), ""))</f>
-        <v>STRAWBERRY_4A_8</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 8</v>
       </c>
       <c r="J130">
-        <f t="shared" si="19"/>
-        <v>8044008</v>
+        <f t="shared" si="20"/>
+        <v>8084007</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -5529,32 +5529,32 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="20">IF(A131="cassette", 10000, IF(A131="completion", 20000, IF(A131="gemheart", 30000, IF(A131="strawberry", 40000, 0))))</f>
-        <v>40000</v>
+        <f t="shared" ref="E131:E194" si="21">IF(A131="cassette", 20000, IF(A131="completion", 40000, IF(A131="gemheart", 60000, IF(A131="strawberry", 80000, 0))))</f>
+        <v>80000</v>
       </c>
       <c r="F131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G131">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H131">
         <f>COUNTIFS($A$2:A131, A131, $B$2:B131, B131, $C$2:C131, C131) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I131" t="str">
-        <f>_xlfn.CONCAT(UPPER(A131), "_", B131, MID("ABC", C131 + 1, 1), IF(COUNTIFS(A:A, A131, B:B, B131, C:C, C131)&gt;1, _xlfn.CONCAT("_", H131), ""))</f>
-        <v>STRAWBERRY_4A_9</v>
+        <f t="shared" si="16"/>
+        <v>Level 4 A-Side Strawberry 9</v>
       </c>
       <c r="J131">
-        <f t="shared" si="19"/>
-        <v>8044009</v>
+        <f t="shared" si="20"/>
+        <v>8084008</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -5568,32 +5568,32 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E132">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <f t="shared" si="21"/>
+        <v>80000</v>
       </c>
       <c r="F132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G132">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H132">
         <f>COUNTIFS($A$2:A132, A132, $B$2:B132, B132, $C$2:C132, C132) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I132" t="str">
-        <f>_xlfn.CONCAT(UPPER(A132), "_", B132, MID("ABC", C132 + 1, 1), IF(COUNTIFS(A:A, A132, B:B, B132, C:C, C132)&gt;1, _xlfn.CONCAT("_", H132), ""))</f>
-        <v>STRAWBERRY_4A_10</v>
+        <f t="shared" ref="I132:I195" si="22">_xlfn.CONCAT("Level ", B132, " ", MID("ABC", C132 + 1, 1), "-Side", IF(A132="completion", " Complete", IF(A132="cassette", " Cassette", IF(A132="gemheart", " Crystal Heart", IF(A132="strawberry", _xlfn.CONCAT(" Strawberry ", H132+1), "")))))</f>
+        <v>Level 4 A-Side Strawberry 10</v>
       </c>
       <c r="J132">
-        <f t="shared" si="19"/>
-        <v>8044010</v>
+        <f t="shared" si="20"/>
+        <v>8084009</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -5607,32 +5607,32 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D196" si="21">$D$2</f>
+        <f t="shared" si="17"/>
         <v>8000000</v>
       </c>
       <c r="E133">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <f t="shared" si="21"/>
+        <v>80000</v>
       </c>
       <c r="F133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G133">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H133">
         <f>COUNTIFS($A$2:A133, A133, $B$2:B133, B133, $C$2:C133, C133) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I133" t="str">
-        <f>_xlfn.CONCAT(UPPER(A133), "_", B133, MID("ABC", C133 + 1, 1), IF(COUNTIFS(A:A, A133, B:B, B133, C:C, C133)&gt;1, _xlfn.CONCAT("_", H133), ""))</f>
-        <v>STRAWBERRY_4A_11</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 11</v>
       </c>
       <c r="J133">
-        <f t="shared" si="19"/>
-        <v>8044011</v>
+        <f t="shared" si="20"/>
+        <v>8084010</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5646,32 +5646,32 @@
         <v>0</v>
       </c>
       <c r="D134">
+        <f t="shared" ref="D134:D197" si="23">$D$2</f>
+        <v>8000000</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G134">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H134">
         <f>COUNTIFS($A$2:A134, A134, $B$2:B134, B134, $C$2:C134, C134) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I134" t="str">
-        <f>_xlfn.CONCAT(UPPER(A134), "_", B134, MID("ABC", C134 + 1, 1), IF(COUNTIFS(A:A, A134, B:B, B134, C:C, C134)&gt;1, _xlfn.CONCAT("_", H134), ""))</f>
-        <v>STRAWBERRY_4A_12</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 12</v>
       </c>
       <c r="J134">
-        <f t="shared" si="19"/>
-        <v>8044012</v>
+        <f t="shared" si="20"/>
+        <v>8084011</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5685,32 +5685,32 @@
         <v>0</v>
       </c>
       <c r="D135">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G135">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H135">
         <f>COUNTIFS($A$2:A135, A135, $B$2:B135, B135, $C$2:C135, C135) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I135" t="str">
-        <f>_xlfn.CONCAT(UPPER(A135), "_", B135, MID("ABC", C135 + 1, 1), IF(COUNTIFS(A:A, A135, B:B, B135, C:C, C135)&gt;1, _xlfn.CONCAT("_", H135), ""))</f>
-        <v>STRAWBERRY_4A_13</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 13</v>
       </c>
       <c r="J135">
-        <f t="shared" si="19"/>
-        <v>8044013</v>
+        <f t="shared" si="20"/>
+        <v>8084012</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5724,32 +5724,32 @@
         <v>0</v>
       </c>
       <c r="D136">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G136">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H136">
         <f>COUNTIFS($A$2:A136, A136, $B$2:B136, B136, $C$2:C136, C136) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I136" t="str">
-        <f>_xlfn.CONCAT(UPPER(A136), "_", B136, MID("ABC", C136 + 1, 1), IF(COUNTIFS(A:A, A136, B:B, B136, C:C, C136)&gt;1, _xlfn.CONCAT("_", H136), ""))</f>
-        <v>STRAWBERRY_4A_14</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 14</v>
       </c>
       <c r="J136">
-        <f t="shared" si="19"/>
-        <v>8044014</v>
+        <f t="shared" si="20"/>
+        <v>8084013</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5763,32 +5763,32 @@
         <v>0</v>
       </c>
       <c r="D137">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G137">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H137">
         <f>COUNTIFS($A$2:A137, A137, $B$2:B137, B137, $C$2:C137, C137) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I137" t="str">
-        <f>_xlfn.CONCAT(UPPER(A137), "_", B137, MID("ABC", C137 + 1, 1), IF(COUNTIFS(A:A, A137, B:B, B137, C:C, C137)&gt;1, _xlfn.CONCAT("_", H137), ""))</f>
-        <v>STRAWBERRY_4A_15</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 15</v>
       </c>
       <c r="J137">
-        <f t="shared" si="19"/>
-        <v>8044015</v>
+        <f t="shared" si="20"/>
+        <v>8084014</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5802,32 +5802,32 @@
         <v>0</v>
       </c>
       <c r="D138">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G138">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H138">
         <f>COUNTIFS($A$2:A138, A138, $B$2:B138, B138, $C$2:C138, C138) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I138" t="str">
-        <f>_xlfn.CONCAT(UPPER(A138), "_", B138, MID("ABC", C138 + 1, 1), IF(COUNTIFS(A:A, A138, B:B, B138, C:C, C138)&gt;1, _xlfn.CONCAT("_", H138), ""))</f>
-        <v>STRAWBERRY_4A_16</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 16</v>
       </c>
       <c r="J138">
-        <f t="shared" si="19"/>
-        <v>8044016</v>
+        <f t="shared" si="20"/>
+        <v>8084015</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -5841,32 +5841,32 @@
         <v>0</v>
       </c>
       <c r="D139">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G139">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H139">
         <f>COUNTIFS($A$2:A139, A139, $B$2:B139, B139, $C$2:C139, C139) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" t="str">
-        <f>_xlfn.CONCAT(UPPER(A139), "_", B139, MID("ABC", C139 + 1, 1), IF(COUNTIFS(A:A, A139, B:B, B139, C:C, C139)&gt;1, _xlfn.CONCAT("_", H139), ""))</f>
-        <v>STRAWBERRY_4A_17</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 17</v>
       </c>
       <c r="J139">
-        <f t="shared" si="19"/>
-        <v>8044017</v>
+        <f t="shared" si="20"/>
+        <v>8084016</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -5880,32 +5880,32 @@
         <v>0</v>
       </c>
       <c r="D140">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G140">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H140">
         <f>COUNTIFS($A$2:A140, A140, $B$2:B140, B140, $C$2:C140, C140) - 1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I140" t="str">
-        <f>_xlfn.CONCAT(UPPER(A140), "_", B140, MID("ABC", C140 + 1, 1), IF(COUNTIFS(A:A, A140, B:B, B140, C:C, C140)&gt;1, _xlfn.CONCAT("_", H140), ""))</f>
-        <v>STRAWBERRY_4A_18</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 18</v>
       </c>
       <c r="J140">
-        <f t="shared" si="19"/>
-        <v>8044018</v>
+        <f t="shared" si="20"/>
+        <v>8084017</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -5919,32 +5919,32 @@
         <v>0</v>
       </c>
       <c r="D141">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G141">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H141">
         <f>COUNTIFS($A$2:A141, A141, $B$2:B141, B141, $C$2:C141, C141) - 1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I141" t="str">
-        <f>_xlfn.CONCAT(UPPER(A141), "_", B141, MID("ABC", C141 + 1, 1), IF(COUNTIFS(A:A, A141, B:B, B141, C:C, C141)&gt;1, _xlfn.CONCAT("_", H141), ""))</f>
-        <v>STRAWBERRY_4A_19</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 19</v>
       </c>
       <c r="J141">
-        <f t="shared" si="19"/>
-        <v>8044019</v>
+        <f t="shared" si="20"/>
+        <v>8084018</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -5958,32 +5958,32 @@
         <v>0</v>
       </c>
       <c r="D142">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G142">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H142">
         <f>COUNTIFS($A$2:A142, A142, $B$2:B142, B142, $C$2:C142, C142) - 1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I142" t="str">
-        <f>_xlfn.CONCAT(UPPER(A142), "_", B142, MID("ABC", C142 + 1, 1), IF(COUNTIFS(A:A, A142, B:B, B142, C:C, C142)&gt;1, _xlfn.CONCAT("_", H142), ""))</f>
-        <v>STRAWBERRY_4A_20</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 20</v>
       </c>
       <c r="J142">
-        <f t="shared" si="19"/>
-        <v>8044020</v>
+        <f t="shared" si="20"/>
+        <v>8084019</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -5997,32 +5997,32 @@
         <v>0</v>
       </c>
       <c r="D143">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G143">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H143">
         <f>COUNTIFS($A$2:A143, A143, $B$2:B143, B143, $C$2:C143, C143) - 1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I143" t="str">
-        <f>_xlfn.CONCAT(UPPER(A143), "_", B143, MID("ABC", C143 + 1, 1), IF(COUNTIFS(A:A, A143, B:B, B143, C:C, C143)&gt;1, _xlfn.CONCAT("_", H143), ""))</f>
-        <v>STRAWBERRY_4A_21</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 21</v>
       </c>
       <c r="J143">
-        <f t="shared" si="19"/>
-        <v>8044021</v>
+        <f t="shared" si="20"/>
+        <v>8084020</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -6036,32 +6036,32 @@
         <v>0</v>
       </c>
       <c r="D144">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G144">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H144">
         <f>COUNTIFS($A$2:A144, A144, $B$2:B144, B144, $C$2:C144, C144) - 1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I144" t="str">
-        <f>_xlfn.CONCAT(UPPER(A144), "_", B144, MID("ABC", C144 + 1, 1), IF(COUNTIFS(A:A, A144, B:B, B144, C:C, C144)&gt;1, _xlfn.CONCAT("_", H144), ""))</f>
-        <v>STRAWBERRY_4A_22</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 22</v>
       </c>
       <c r="J144">
-        <f t="shared" si="19"/>
-        <v>8044022</v>
+        <f t="shared" si="20"/>
+        <v>8084021</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -6075,32 +6075,32 @@
         <v>0</v>
       </c>
       <c r="D145">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G145">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H145">
         <f>COUNTIFS($A$2:A145, A145, $B$2:B145, B145, $C$2:C145, C145) - 1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I145" t="str">
-        <f>_xlfn.CONCAT(UPPER(A145), "_", B145, MID("ABC", C145 + 1, 1), IF(COUNTIFS(A:A, A145, B:B, B145, C:C, C145)&gt;1, _xlfn.CONCAT("_", H145), ""))</f>
-        <v>STRAWBERRY_4A_23</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 23</v>
       </c>
       <c r="J145">
-        <f t="shared" si="19"/>
-        <v>8044023</v>
+        <f t="shared" si="20"/>
+        <v>8084022</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -6114,32 +6114,32 @@
         <v>0</v>
       </c>
       <c r="D146">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H146">
         <f>COUNTIFS($A$2:A146, A146, $B$2:B146, B146, $C$2:C146, C146) - 1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I146" t="str">
-        <f>_xlfn.CONCAT(UPPER(A146), "_", B146, MID("ABC", C146 + 1, 1), IF(COUNTIFS(A:A, A146, B:B, B146, C:C, C146)&gt;1, _xlfn.CONCAT("_", H146), ""))</f>
-        <v>STRAWBERRY_4A_24</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 24</v>
       </c>
       <c r="J146">
-        <f t="shared" si="19"/>
-        <v>8044024</v>
+        <f t="shared" si="20"/>
+        <v>8084023</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -6153,32 +6153,32 @@
         <v>0</v>
       </c>
       <c r="D147">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G147">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H147">
         <f>COUNTIFS($A$2:A147, A147, $B$2:B147, B147, $C$2:C147, C147) - 1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I147" t="str">
-        <f>_xlfn.CONCAT(UPPER(A147), "_", B147, MID("ABC", C147 + 1, 1), IF(COUNTIFS(A:A, A147, B:B, B147, C:C, C147)&gt;1, _xlfn.CONCAT("_", H147), ""))</f>
-        <v>STRAWBERRY_4A_25</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 25</v>
       </c>
       <c r="J147">
-        <f t="shared" si="19"/>
-        <v>8044025</v>
+        <f t="shared" si="20"/>
+        <v>8084024</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -6192,32 +6192,32 @@
         <v>0</v>
       </c>
       <c r="D148">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G148">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H148">
         <f>COUNTIFS($A$2:A148, A148, $B$2:B148, B148, $C$2:C148, C148) - 1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I148" t="str">
-        <f>_xlfn.CONCAT(UPPER(A148), "_", B148, MID("ABC", C148 + 1, 1), IF(COUNTIFS(A:A, A148, B:B, B148, C:C, C148)&gt;1, _xlfn.CONCAT("_", H148), ""))</f>
-        <v>STRAWBERRY_4A_26</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 26</v>
       </c>
       <c r="J148">
-        <f t="shared" si="19"/>
-        <v>8044026</v>
+        <f t="shared" si="20"/>
+        <v>8084025</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -6231,32 +6231,32 @@
         <v>0</v>
       </c>
       <c r="D149">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G149">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H149">
         <f>COUNTIFS($A$2:A149, A149, $B$2:B149, B149, $C$2:C149, C149) - 1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I149" t="str">
-        <f>_xlfn.CONCAT(UPPER(A149), "_", B149, MID("ABC", C149 + 1, 1), IF(COUNTIFS(A:A, A149, B:B, B149, C:C, C149)&gt;1, _xlfn.CONCAT("_", H149), ""))</f>
-        <v>STRAWBERRY_4A_27</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 27</v>
       </c>
       <c r="J149">
-        <f t="shared" si="19"/>
-        <v>8044027</v>
+        <f t="shared" si="20"/>
+        <v>8084026</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -6270,32 +6270,32 @@
         <v>0</v>
       </c>
       <c r="D150">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="G150">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H150">
         <f>COUNTIFS($A$2:A150, A150, $B$2:B150, B150, $C$2:C150, C150) - 1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I150" t="str">
-        <f>_xlfn.CONCAT(UPPER(A150), "_", B150, MID("ABC", C150 + 1, 1), IF(COUNTIFS(A:A, A150, B:B, B150, C:C, C150)&gt;1, _xlfn.CONCAT("_", H150), ""))</f>
-        <v>STRAWBERRY_4A_28</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 28</v>
       </c>
       <c r="J150">
-        <f t="shared" si="19"/>
-        <v>8044028</v>
+        <f t="shared" si="20"/>
+        <v>8084027</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -6303,38 +6303,38 @@
         <v>13</v>
       </c>
       <c r="B151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E151">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F151">
-        <f t="shared" si="17"/>
-        <v>5000</v>
+        <f t="shared" si="18"/>
+        <v>4000</v>
       </c>
       <c r="G151">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H151">
         <f>COUNTIFS($A$2:A151, A151, $B$2:B151, B151, $C$2:C151, C151) - 1</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I151" t="str">
-        <f>_xlfn.CONCAT(UPPER(A151), "_", B151, MID("ABC", C151 + 1, 1), IF(COUNTIFS(A:A, A151, B:B, B151, C:C, C151)&gt;1, _xlfn.CONCAT("_", H151), ""))</f>
-        <v>STRAWBERRY_5A_0</v>
+        <f t="shared" si="22"/>
+        <v>Level 4 A-Side Strawberry 29</v>
       </c>
       <c r="J151">
-        <f t="shared" si="19"/>
-        <v>8045000</v>
+        <f t="shared" si="20"/>
+        <v>8084028</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -6348,32 +6348,32 @@
         <v>0</v>
       </c>
       <c r="D152">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G152">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H152">
         <f>COUNTIFS($A$2:A152, A152, $B$2:B152, B152, $C$2:C152, C152) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="str">
-        <f>_xlfn.CONCAT(UPPER(A152), "_", B152, MID("ABC", C152 + 1, 1), IF(COUNTIFS(A:A, A152, B:B, B152, C:C, C152)&gt;1, _xlfn.CONCAT("_", H152), ""))</f>
-        <v>STRAWBERRY_5A_1</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 1</v>
       </c>
       <c r="J152">
-        <f t="shared" si="19"/>
-        <v>8045001</v>
+        <f t="shared" si="20"/>
+        <v>8085000</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -6387,32 +6387,32 @@
         <v>0</v>
       </c>
       <c r="D153">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E153">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G153">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H153">
         <f>COUNTIFS($A$2:A153, A153, $B$2:B153, B153, $C$2:C153, C153) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="str">
-        <f>_xlfn.CONCAT(UPPER(A153), "_", B153, MID("ABC", C153 + 1, 1), IF(COUNTIFS(A:A, A153, B:B, B153, C:C, C153)&gt;1, _xlfn.CONCAT("_", H153), ""))</f>
-        <v>STRAWBERRY_5A_2</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 2</v>
       </c>
       <c r="J153">
-        <f t="shared" si="19"/>
-        <v>8045002</v>
+        <f t="shared" si="20"/>
+        <v>8085001</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -6426,32 +6426,32 @@
         <v>0</v>
       </c>
       <c r="D154">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E154">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G154">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H154">
         <f>COUNTIFS($A$2:A154, A154, $B$2:B154, B154, $C$2:C154, C154) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="str">
-        <f>_xlfn.CONCAT(UPPER(A154), "_", B154, MID("ABC", C154 + 1, 1), IF(COUNTIFS(A:A, A154, B:B, B154, C:C, C154)&gt;1, _xlfn.CONCAT("_", H154), ""))</f>
-        <v>STRAWBERRY_5A_3</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 3</v>
       </c>
       <c r="J154">
-        <f t="shared" si="19"/>
-        <v>8045003</v>
+        <f t="shared" si="20"/>
+        <v>8085002</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -6465,32 +6465,32 @@
         <v>0</v>
       </c>
       <c r="D155">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E155">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G155">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H155">
         <f>COUNTIFS($A$2:A155, A155, $B$2:B155, B155, $C$2:C155, C155) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I155" t="str">
-        <f>_xlfn.CONCAT(UPPER(A155), "_", B155, MID("ABC", C155 + 1, 1), IF(COUNTIFS(A:A, A155, B:B, B155, C:C, C155)&gt;1, _xlfn.CONCAT("_", H155), ""))</f>
-        <v>STRAWBERRY_5A_4</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 4</v>
       </c>
       <c r="J155">
-        <f t="shared" si="19"/>
-        <v>8045004</v>
+        <f t="shared" si="20"/>
+        <v>8085003</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -6504,32 +6504,32 @@
         <v>0</v>
       </c>
       <c r="D156">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E156">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G156">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H156">
         <f>COUNTIFS($A$2:A156, A156, $B$2:B156, B156, $C$2:C156, C156) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I156" t="str">
-        <f>_xlfn.CONCAT(UPPER(A156), "_", B156, MID("ABC", C156 + 1, 1), IF(COUNTIFS(A:A, A156, B:B, B156, C:C, C156)&gt;1, _xlfn.CONCAT("_", H156), ""))</f>
-        <v>STRAWBERRY_5A_5</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 5</v>
       </c>
       <c r="J156">
-        <f t="shared" si="19"/>
-        <v>8045005</v>
+        <f t="shared" si="20"/>
+        <v>8085004</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -6543,32 +6543,32 @@
         <v>0</v>
       </c>
       <c r="D157">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E157">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G157">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H157">
         <f>COUNTIFS($A$2:A157, A157, $B$2:B157, B157, $C$2:C157, C157) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I157" t="str">
-        <f>_xlfn.CONCAT(UPPER(A157), "_", B157, MID("ABC", C157 + 1, 1), IF(COUNTIFS(A:A, A157, B:B, B157, C:C, C157)&gt;1, _xlfn.CONCAT("_", H157), ""))</f>
-        <v>STRAWBERRY_5A_6</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 6</v>
       </c>
       <c r="J157">
-        <f t="shared" si="19"/>
-        <v>8045006</v>
+        <f t="shared" si="20"/>
+        <v>8085005</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -6582,32 +6582,32 @@
         <v>0</v>
       </c>
       <c r="D158">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E158">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G158">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H158">
         <f>COUNTIFS($A$2:A158, A158, $B$2:B158, B158, $C$2:C158, C158) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I158" t="str">
-        <f>_xlfn.CONCAT(UPPER(A158), "_", B158, MID("ABC", C158 + 1, 1), IF(COUNTIFS(A:A, A158, B:B, B158, C:C, C158)&gt;1, _xlfn.CONCAT("_", H158), ""))</f>
-        <v>STRAWBERRY_5A_7</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 7</v>
       </c>
       <c r="J158">
-        <f t="shared" si="19"/>
-        <v>8045007</v>
+        <f t="shared" si="20"/>
+        <v>8085006</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -6621,32 +6621,32 @@
         <v>0</v>
       </c>
       <c r="D159">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E159">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G159">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H159">
         <f>COUNTIFS($A$2:A159, A159, $B$2:B159, B159, $C$2:C159, C159) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I159" t="str">
-        <f>_xlfn.CONCAT(UPPER(A159), "_", B159, MID("ABC", C159 + 1, 1), IF(COUNTIFS(A:A, A159, B:B, B159, C:C, C159)&gt;1, _xlfn.CONCAT("_", H159), ""))</f>
-        <v>STRAWBERRY_5A_8</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 8</v>
       </c>
       <c r="J159">
-        <f t="shared" si="19"/>
-        <v>8045008</v>
+        <f t="shared" si="20"/>
+        <v>8085007</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -6660,32 +6660,32 @@
         <v>0</v>
       </c>
       <c r="D160">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E160">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G160">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H160">
         <f>COUNTIFS($A$2:A160, A160, $B$2:B160, B160, $C$2:C160, C160) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I160" t="str">
-        <f>_xlfn.CONCAT(UPPER(A160), "_", B160, MID("ABC", C160 + 1, 1), IF(COUNTIFS(A:A, A160, B:B, B160, C:C, C160)&gt;1, _xlfn.CONCAT("_", H160), ""))</f>
-        <v>STRAWBERRY_5A_9</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 9</v>
       </c>
       <c r="J160">
-        <f t="shared" si="19"/>
-        <v>8045009</v>
+        <f t="shared" si="20"/>
+        <v>8085008</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -6699,32 +6699,32 @@
         <v>0</v>
       </c>
       <c r="D161">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E161">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G161">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H161">
         <f>COUNTIFS($A$2:A161, A161, $B$2:B161, B161, $C$2:C161, C161) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I161" t="str">
-        <f>_xlfn.CONCAT(UPPER(A161), "_", B161, MID("ABC", C161 + 1, 1), IF(COUNTIFS(A:A, A161, B:B, B161, C:C, C161)&gt;1, _xlfn.CONCAT("_", H161), ""))</f>
-        <v>STRAWBERRY_5A_10</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 10</v>
       </c>
       <c r="J161">
-        <f t="shared" si="19"/>
-        <v>8045010</v>
+        <f t="shared" si="20"/>
+        <v>8085009</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -6738,32 +6738,32 @@
         <v>0</v>
       </c>
       <c r="D162">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E162">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G162">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H162">
         <f>COUNTIFS($A$2:A162, A162, $B$2:B162, B162, $C$2:C162, C162) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I162" t="str">
-        <f>_xlfn.CONCAT(UPPER(A162), "_", B162, MID("ABC", C162 + 1, 1), IF(COUNTIFS(A:A, A162, B:B, B162, C:C, C162)&gt;1, _xlfn.CONCAT("_", H162), ""))</f>
-        <v>STRAWBERRY_5A_11</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 11</v>
       </c>
       <c r="J162">
-        <f t="shared" si="19"/>
-        <v>8045011</v>
+        <f t="shared" si="20"/>
+        <v>8085010</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -6777,32 +6777,32 @@
         <v>0</v>
       </c>
       <c r="D163">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E163">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F163">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G163">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H163">
         <f>COUNTIFS($A$2:A163, A163, $B$2:B163, B163, $C$2:C163, C163) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" t="str">
-        <f>_xlfn.CONCAT(UPPER(A163), "_", B163, MID("ABC", C163 + 1, 1), IF(COUNTIFS(A:A, A163, B:B, B163, C:C, C163)&gt;1, _xlfn.CONCAT("_", H163), ""))</f>
-        <v>STRAWBERRY_5A_12</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 12</v>
       </c>
       <c r="J163">
-        <f t="shared" si="19"/>
-        <v>8045012</v>
+        <f t="shared" si="20"/>
+        <v>8085011</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -6816,32 +6816,32 @@
         <v>0</v>
       </c>
       <c r="D164">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G164">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H164">
         <f>COUNTIFS($A$2:A164, A164, $B$2:B164, B164, $C$2:C164, C164) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I164" t="str">
-        <f>_xlfn.CONCAT(UPPER(A164), "_", B164, MID("ABC", C164 + 1, 1), IF(COUNTIFS(A:A, A164, B:B, B164, C:C, C164)&gt;1, _xlfn.CONCAT("_", H164), ""))</f>
-        <v>STRAWBERRY_5A_13</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 13</v>
       </c>
       <c r="J164">
-        <f t="shared" si="19"/>
-        <v>8045013</v>
+        <f t="shared" si="20"/>
+        <v>8085012</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -6855,32 +6855,32 @@
         <v>0</v>
       </c>
       <c r="D165">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E165">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H165">
         <f>COUNTIFS($A$2:A165, A165, $B$2:B165, B165, $C$2:C165, C165) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I165" t="str">
-        <f>_xlfn.CONCAT(UPPER(A165), "_", B165, MID("ABC", C165 + 1, 1), IF(COUNTIFS(A:A, A165, B:B, B165, C:C, C165)&gt;1, _xlfn.CONCAT("_", H165), ""))</f>
-        <v>STRAWBERRY_5A_14</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 14</v>
       </c>
       <c r="J165">
-        <f t="shared" si="19"/>
-        <v>8045014</v>
+        <f t="shared" si="20"/>
+        <v>8085013</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -6894,32 +6894,32 @@
         <v>0</v>
       </c>
       <c r="D166">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E166">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G166">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H166">
         <f>COUNTIFS($A$2:A166, A166, $B$2:B166, B166, $C$2:C166, C166) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I166" t="str">
-        <f>_xlfn.CONCAT(UPPER(A166), "_", B166, MID("ABC", C166 + 1, 1), IF(COUNTIFS(A:A, A166, B:B, B166, C:C, C166)&gt;1, _xlfn.CONCAT("_", H166), ""))</f>
-        <v>STRAWBERRY_5A_15</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 15</v>
       </c>
       <c r="J166">
-        <f t="shared" si="19"/>
-        <v>8045015</v>
+        <f t="shared" si="20"/>
+        <v>8085014</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -6933,32 +6933,32 @@
         <v>0</v>
       </c>
       <c r="D167">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E167">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H167">
         <f>COUNTIFS($A$2:A167, A167, $B$2:B167, B167, $C$2:C167, C167) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I167" t="str">
-        <f>_xlfn.CONCAT(UPPER(A167), "_", B167, MID("ABC", C167 + 1, 1), IF(COUNTIFS(A:A, A167, B:B, B167, C:C, C167)&gt;1, _xlfn.CONCAT("_", H167), ""))</f>
-        <v>STRAWBERRY_5A_16</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 16</v>
       </c>
       <c r="J167">
-        <f t="shared" si="19"/>
-        <v>8045016</v>
+        <f t="shared" si="20"/>
+        <v>8085015</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -6972,32 +6972,32 @@
         <v>0</v>
       </c>
       <c r="D168">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E168">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H168">
         <f>COUNTIFS($A$2:A168, A168, $B$2:B168, B168, $C$2:C168, C168) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I168" t="str">
-        <f>_xlfn.CONCAT(UPPER(A168), "_", B168, MID("ABC", C168 + 1, 1), IF(COUNTIFS(A:A, A168, B:B, B168, C:C, C168)&gt;1, _xlfn.CONCAT("_", H168), ""))</f>
-        <v>STRAWBERRY_5A_17</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 17</v>
       </c>
       <c r="J168">
-        <f t="shared" si="19"/>
-        <v>8045017</v>
+        <f t="shared" si="20"/>
+        <v>8085016</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -7011,32 +7011,32 @@
         <v>0</v>
       </c>
       <c r="D169">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E169">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G169">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H169">
         <f>COUNTIFS($A$2:A169, A169, $B$2:B169, B169, $C$2:C169, C169) - 1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I169" t="str">
-        <f>_xlfn.CONCAT(UPPER(A169), "_", B169, MID("ABC", C169 + 1, 1), IF(COUNTIFS(A:A, A169, B:B, B169, C:C, C169)&gt;1, _xlfn.CONCAT("_", H169), ""))</f>
-        <v>STRAWBERRY_5A_18</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 18</v>
       </c>
       <c r="J169">
-        <f t="shared" si="19"/>
-        <v>8045018</v>
+        <f t="shared" si="20"/>
+        <v>8085017</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -7050,32 +7050,32 @@
         <v>0</v>
       </c>
       <c r="D170">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E170">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G170">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H170">
         <f>COUNTIFS($A$2:A170, A170, $B$2:B170, B170, $C$2:C170, C170) - 1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I170" t="str">
-        <f>_xlfn.CONCAT(UPPER(A170), "_", B170, MID("ABC", C170 + 1, 1), IF(COUNTIFS(A:A, A170, B:B, B170, C:C, C170)&gt;1, _xlfn.CONCAT("_", H170), ""))</f>
-        <v>STRAWBERRY_5A_19</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 19</v>
       </c>
       <c r="J170">
-        <f t="shared" si="19"/>
-        <v>8045019</v>
+        <f t="shared" si="20"/>
+        <v>8085018</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -7089,32 +7089,32 @@
         <v>0</v>
       </c>
       <c r="D171">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E171">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H171">
         <f>COUNTIFS($A$2:A171, A171, $B$2:B171, B171, $C$2:C171, C171) - 1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I171" t="str">
-        <f>_xlfn.CONCAT(UPPER(A171), "_", B171, MID("ABC", C171 + 1, 1), IF(COUNTIFS(A:A, A171, B:B, B171, C:C, C171)&gt;1, _xlfn.CONCAT("_", H171), ""))</f>
-        <v>STRAWBERRY_5A_20</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 20</v>
       </c>
       <c r="J171">
-        <f t="shared" si="19"/>
-        <v>8045020</v>
+        <f t="shared" si="20"/>
+        <v>8085019</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -7128,32 +7128,32 @@
         <v>0</v>
       </c>
       <c r="D172">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E172">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H172">
         <f>COUNTIFS($A$2:A172, A172, $B$2:B172, B172, $C$2:C172, C172) - 1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I172" t="str">
-        <f>_xlfn.CONCAT(UPPER(A172), "_", B172, MID("ABC", C172 + 1, 1), IF(COUNTIFS(A:A, A172, B:B, B172, C:C, C172)&gt;1, _xlfn.CONCAT("_", H172), ""))</f>
-        <v>STRAWBERRY_5A_21</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 21</v>
       </c>
       <c r="J172">
-        <f t="shared" si="19"/>
-        <v>8045021</v>
+        <f t="shared" si="20"/>
+        <v>8085020</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -7167,32 +7167,32 @@
         <v>0</v>
       </c>
       <c r="D173">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E173">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H173">
         <f>COUNTIFS($A$2:A173, A173, $B$2:B173, B173, $C$2:C173, C173) - 1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I173" t="str">
-        <f>_xlfn.CONCAT(UPPER(A173), "_", B173, MID("ABC", C173 + 1, 1), IF(COUNTIFS(A:A, A173, B:B, B173, C:C, C173)&gt;1, _xlfn.CONCAT("_", H173), ""))</f>
-        <v>STRAWBERRY_5A_22</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 22</v>
       </c>
       <c r="J173">
-        <f t="shared" si="19"/>
-        <v>8045022</v>
+        <f t="shared" si="20"/>
+        <v>8085021</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -7206,32 +7206,32 @@
         <v>0</v>
       </c>
       <c r="D174">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E174">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H174">
         <f>COUNTIFS($A$2:A174, A174, $B$2:B174, B174, $C$2:C174, C174) - 1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I174" t="str">
-        <f>_xlfn.CONCAT(UPPER(A174), "_", B174, MID("ABC", C174 + 1, 1), IF(COUNTIFS(A:A, A174, B:B, B174, C:C, C174)&gt;1, _xlfn.CONCAT("_", H174), ""))</f>
-        <v>STRAWBERRY_5A_23</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 23</v>
       </c>
       <c r="J174">
-        <f t="shared" si="19"/>
-        <v>8045023</v>
+        <f t="shared" si="20"/>
+        <v>8085022</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -7245,32 +7245,32 @@
         <v>0</v>
       </c>
       <c r="D175">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E175">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H175">
         <f>COUNTIFS($A$2:A175, A175, $B$2:B175, B175, $C$2:C175, C175) - 1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I175" t="str">
-        <f>_xlfn.CONCAT(UPPER(A175), "_", B175, MID("ABC", C175 + 1, 1), IF(COUNTIFS(A:A, A175, B:B, B175, C:C, C175)&gt;1, _xlfn.CONCAT("_", H175), ""))</f>
-        <v>STRAWBERRY_5A_24</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 24</v>
       </c>
       <c r="J175">
-        <f t="shared" si="19"/>
-        <v>8045024</v>
+        <f t="shared" si="20"/>
+        <v>8085023</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -7284,32 +7284,32 @@
         <v>0</v>
       </c>
       <c r="D176">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E176">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H176">
         <f>COUNTIFS($A$2:A176, A176, $B$2:B176, B176, $C$2:C176, C176) - 1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I176" t="str">
-        <f>_xlfn.CONCAT(UPPER(A176), "_", B176, MID("ABC", C176 + 1, 1), IF(COUNTIFS(A:A, A176, B:B, B176, C:C, C176)&gt;1, _xlfn.CONCAT("_", H176), ""))</f>
-        <v>STRAWBERRY_5A_25</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 25</v>
       </c>
       <c r="J176">
-        <f t="shared" si="19"/>
-        <v>8045025</v>
+        <f t="shared" si="20"/>
+        <v>8085024</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -7323,32 +7323,32 @@
         <v>0</v>
       </c>
       <c r="D177">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E177">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H177">
         <f>COUNTIFS($A$2:A177, A177, $B$2:B177, B177, $C$2:C177, C177) - 1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I177" t="str">
-        <f>_xlfn.CONCAT(UPPER(A177), "_", B177, MID("ABC", C177 + 1, 1), IF(COUNTIFS(A:A, A177, B:B, B177, C:C, C177)&gt;1, _xlfn.CONCAT("_", H177), ""))</f>
-        <v>STRAWBERRY_5A_26</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 26</v>
       </c>
       <c r="J177">
-        <f t="shared" si="19"/>
-        <v>8045026</v>
+        <f t="shared" si="20"/>
+        <v>8085025</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -7362,32 +7362,32 @@
         <v>0</v>
       </c>
       <c r="D178">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E178">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H178">
         <f>COUNTIFS($A$2:A178, A178, $B$2:B178, B178, $C$2:C178, C178) - 1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I178" t="str">
-        <f>_xlfn.CONCAT(UPPER(A178), "_", B178, MID("ABC", C178 + 1, 1), IF(COUNTIFS(A:A, A178, B:B, B178, C:C, C178)&gt;1, _xlfn.CONCAT("_", H178), ""))</f>
-        <v>STRAWBERRY_5A_27</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 27</v>
       </c>
       <c r="J178">
-        <f t="shared" si="19"/>
-        <v>8045027</v>
+        <f t="shared" si="20"/>
+        <v>8085026</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -7401,32 +7401,32 @@
         <v>0</v>
       </c>
       <c r="D179">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E179">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F179">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G179">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H179">
         <f>COUNTIFS($A$2:A179, A179, $B$2:B179, B179, $C$2:C179, C179) - 1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I179" t="str">
-        <f>_xlfn.CONCAT(UPPER(A179), "_", B179, MID("ABC", C179 + 1, 1), IF(COUNTIFS(A:A, A179, B:B, B179, C:C, C179)&gt;1, _xlfn.CONCAT("_", H179), ""))</f>
-        <v>STRAWBERRY_5A_28</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 28</v>
       </c>
       <c r="J179">
-        <f t="shared" si="19"/>
-        <v>8045028</v>
+        <f t="shared" si="20"/>
+        <v>8085027</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -7440,32 +7440,32 @@
         <v>0</v>
       </c>
       <c r="D180">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E180">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F180">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G180">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H180">
         <f>COUNTIFS($A$2:A180, A180, $B$2:B180, B180, $C$2:C180, C180) - 1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I180" t="str">
-        <f>_xlfn.CONCAT(UPPER(A180), "_", B180, MID("ABC", C180 + 1, 1), IF(COUNTIFS(A:A, A180, B:B, B180, C:C, C180)&gt;1, _xlfn.CONCAT("_", H180), ""))</f>
-        <v>STRAWBERRY_5A_29</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 29</v>
       </c>
       <c r="J180">
-        <f t="shared" si="19"/>
-        <v>8045029</v>
+        <f t="shared" si="20"/>
+        <v>8085028</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -7479,32 +7479,32 @@
         <v>0</v>
       </c>
       <c r="D181">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E181">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="G181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H181">
         <f>COUNTIFS($A$2:A181, A181, $B$2:B181, B181, $C$2:C181, C181) - 1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I181" t="str">
-        <f>_xlfn.CONCAT(UPPER(A181), "_", B181, MID("ABC", C181 + 1, 1), IF(COUNTIFS(A:A, A181, B:B, B181, C:C, C181)&gt;1, _xlfn.CONCAT("_", H181), ""))</f>
-        <v>STRAWBERRY_5A_30</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 30</v>
       </c>
       <c r="J181">
-        <f t="shared" si="19"/>
-        <v>8045030</v>
+        <f t="shared" si="20"/>
+        <v>8085029</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -7512,38 +7512,38 @@
         <v>13</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E182">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F182">
-        <f t="shared" si="17"/>
-        <v>7000</v>
+        <f t="shared" si="18"/>
+        <v>5000</v>
       </c>
       <c r="G182">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H182">
         <f>COUNTIFS($A$2:A182, A182, $B$2:B182, B182, $C$2:C182, C182) - 1</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I182" t="str">
-        <f>_xlfn.CONCAT(UPPER(A182), "_", B182, MID("ABC", C182 + 1, 1), IF(COUNTIFS(A:A, A182, B:B, B182, C:C, C182)&gt;1, _xlfn.CONCAT("_", H182), ""))</f>
-        <v>STRAWBERRY_7A_0</v>
+        <f t="shared" si="22"/>
+        <v>Level 5 A-Side Strawberry 31</v>
       </c>
       <c r="J182">
-        <f t="shared" si="19"/>
-        <v>8047000</v>
+        <f t="shared" si="20"/>
+        <v>8085030</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -7557,32 +7557,32 @@
         <v>0</v>
       </c>
       <c r="D183">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E183">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="G183">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H183">
         <f>COUNTIFS($A$2:A183, A183, $B$2:B183, B183, $C$2:C183, C183) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="str">
-        <f>_xlfn.CONCAT(UPPER(A183), "_", B183, MID("ABC", C183 + 1, 1), IF(COUNTIFS(A:A, A183, B:B, B183, C:C, C183)&gt;1, _xlfn.CONCAT("_", H183), ""))</f>
-        <v>STRAWBERRY_7A_1</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 1</v>
       </c>
       <c r="J183">
-        <f t="shared" si="19"/>
-        <v>8047001</v>
+        <f t="shared" si="20"/>
+        <v>8087000</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -7596,32 +7596,32 @@
         <v>0</v>
       </c>
       <c r="D184">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E184">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="G184">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H184">
         <f>COUNTIFS($A$2:A184, A184, $B$2:B184, B184, $C$2:C184, C184) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="str">
-        <f>_xlfn.CONCAT(UPPER(A184), "_", B184, MID("ABC", C184 + 1, 1), IF(COUNTIFS(A:A, A184, B:B, B184, C:C, C184)&gt;1, _xlfn.CONCAT("_", H184), ""))</f>
-        <v>STRAWBERRY_7A_2</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 2</v>
       </c>
       <c r="J184">
-        <f t="shared" si="19"/>
-        <v>8047002</v>
+        <f t="shared" si="20"/>
+        <v>8087001</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -7635,32 +7635,32 @@
         <v>0</v>
       </c>
       <c r="D185">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E185">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E185">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="G185">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H185">
         <f>COUNTIFS($A$2:A185, A185, $B$2:B185, B185, $C$2:C185, C185) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="str">
-        <f>_xlfn.CONCAT(UPPER(A185), "_", B185, MID("ABC", C185 + 1, 1), IF(COUNTIFS(A:A, A185, B:B, B185, C:C, C185)&gt;1, _xlfn.CONCAT("_", H185), ""))</f>
-        <v>STRAWBERRY_7A_3</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 3</v>
       </c>
       <c r="J185">
-        <f t="shared" si="19"/>
-        <v>8047003</v>
+        <f t="shared" si="20"/>
+        <v>8087002</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -7674,32 +7674,32 @@
         <v>0</v>
       </c>
       <c r="D186">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E186">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E186">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="G186">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H186">
         <f>COUNTIFS($A$2:A186, A186, $B$2:B186, B186, $C$2:C186, C186) - 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186" t="str">
-        <f>_xlfn.CONCAT(UPPER(A186), "_", B186, MID("ABC", C186 + 1, 1), IF(COUNTIFS(A:A, A186, B:B, B186, C:C, C186)&gt;1, _xlfn.CONCAT("_", H186), ""))</f>
-        <v>STRAWBERRY_7A_4</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 4</v>
       </c>
       <c r="J186">
-        <f t="shared" si="19"/>
-        <v>8047004</v>
+        <f t="shared" si="20"/>
+        <v>8087003</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -7713,32 +7713,32 @@
         <v>0</v>
       </c>
       <c r="D187">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E187">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187:F233" si="22">B187*1000</f>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="G187">
-        <f t="shared" ref="G187:G233" si="23">C187*100</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H187">
         <f>COUNTIFS($A$2:A187, A187, $B$2:B187, B187, $C$2:C187, C187) - 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I187" t="str">
-        <f>_xlfn.CONCAT(UPPER(A187), "_", B187, MID("ABC", C187 + 1, 1), IF(COUNTIFS(A:A, A187, B:B, B187, C:C, C187)&gt;1, _xlfn.CONCAT("_", H187), ""))</f>
-        <v>STRAWBERRY_7A_5</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 5</v>
       </c>
       <c r="J187">
-        <f t="shared" ref="J187:J233" si="24">SUM(D187:H187)</f>
-        <v>8047005</v>
+        <f t="shared" si="20"/>
+        <v>8087004</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -7752,32 +7752,32 @@
         <v>0</v>
       </c>
       <c r="D188">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E188">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F188">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F188:F234" si="24">B188*1000</f>
         <v>7000</v>
       </c>
       <c r="G188">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="G188:G234" si="25">C188*100</f>
         <v>0</v>
       </c>
       <c r="H188">
         <f>COUNTIFS($A$2:A188, A188, $B$2:B188, B188, $C$2:C188, C188) - 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I188" t="str">
-        <f>_xlfn.CONCAT(UPPER(A188), "_", B188, MID("ABC", C188 + 1, 1), IF(COUNTIFS(A:A, A188, B:B, B188, C:C, C188)&gt;1, _xlfn.CONCAT("_", H188), ""))</f>
-        <v>STRAWBERRY_7A_6</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 6</v>
       </c>
       <c r="J188">
-        <f t="shared" si="24"/>
-        <v>8047006</v>
+        <f t="shared" ref="J188:J234" si="26">SUM(D188:H188)</f>
+        <v>8087005</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -7791,32 +7791,32 @@
         <v>0</v>
       </c>
       <c r="D189">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E189">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E189">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F189">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G189">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H189">
         <f>COUNTIFS($A$2:A189, A189, $B$2:B189, B189, $C$2:C189, C189) - 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I189" t="str">
-        <f>_xlfn.CONCAT(UPPER(A189), "_", B189, MID("ABC", C189 + 1, 1), IF(COUNTIFS(A:A, A189, B:B, B189, C:C, C189)&gt;1, _xlfn.CONCAT("_", H189), ""))</f>
-        <v>STRAWBERRY_7A_7</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 7</v>
       </c>
       <c r="J189">
-        <f t="shared" si="24"/>
-        <v>8047007</v>
+        <f t="shared" si="26"/>
+        <v>8087006</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -7830,32 +7830,32 @@
         <v>0</v>
       </c>
       <c r="D190">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E190">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F190">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G190">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H190">
         <f>COUNTIFS($A$2:A190, A190, $B$2:B190, B190, $C$2:C190, C190) - 1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I190" t="str">
-        <f>_xlfn.CONCAT(UPPER(A190), "_", B190, MID("ABC", C190 + 1, 1), IF(COUNTIFS(A:A, A190, B:B, B190, C:C, C190)&gt;1, _xlfn.CONCAT("_", H190), ""))</f>
-        <v>STRAWBERRY_7A_8</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 8</v>
       </c>
       <c r="J190">
-        <f t="shared" si="24"/>
-        <v>8047008</v>
+        <f t="shared" si="26"/>
+        <v>8087007</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -7869,32 +7869,32 @@
         <v>0</v>
       </c>
       <c r="D191">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E191">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E191">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F191">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G191">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H191">
         <f>COUNTIFS($A$2:A191, A191, $B$2:B191, B191, $C$2:C191, C191) - 1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I191" t="str">
-        <f>_xlfn.CONCAT(UPPER(A191), "_", B191, MID("ABC", C191 + 1, 1), IF(COUNTIFS(A:A, A191, B:B, B191, C:C, C191)&gt;1, _xlfn.CONCAT("_", H191), ""))</f>
-        <v>STRAWBERRY_7A_9</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 9</v>
       </c>
       <c r="J191">
-        <f t="shared" si="24"/>
-        <v>8047009</v>
+        <f t="shared" si="26"/>
+        <v>8087008</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -7908,32 +7908,32 @@
         <v>0</v>
       </c>
       <c r="D192">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E192">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E192">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F192">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G192">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H192">
         <f>COUNTIFS($A$2:A192, A192, $B$2:B192, B192, $C$2:C192, C192) - 1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I192" t="str">
-        <f>_xlfn.CONCAT(UPPER(A192), "_", B192, MID("ABC", C192 + 1, 1), IF(COUNTIFS(A:A, A192, B:B, B192, C:C, C192)&gt;1, _xlfn.CONCAT("_", H192), ""))</f>
-        <v>STRAWBERRY_7A_10</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 10</v>
       </c>
       <c r="J192">
-        <f t="shared" si="24"/>
-        <v>8047010</v>
+        <f t="shared" si="26"/>
+        <v>8087009</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -7947,32 +7947,32 @@
         <v>0</v>
       </c>
       <c r="D193">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E193">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E193">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F193">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G193">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H193">
         <f>COUNTIFS($A$2:A193, A193, $B$2:B193, B193, $C$2:C193, C193) - 1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I193" t="str">
-        <f>_xlfn.CONCAT(UPPER(A193), "_", B193, MID("ABC", C193 + 1, 1), IF(COUNTIFS(A:A, A193, B:B, B193, C:C, C193)&gt;1, _xlfn.CONCAT("_", H193), ""))</f>
-        <v>STRAWBERRY_7A_11</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 11</v>
       </c>
       <c r="J193">
-        <f t="shared" si="24"/>
-        <v>8047011</v>
+        <f t="shared" si="26"/>
+        <v>8087010</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -7986,32 +7986,32 @@
         <v>0</v>
       </c>
       <c r="D194">
+        <f t="shared" si="23"/>
+        <v>8000000</v>
+      </c>
+      <c r="E194">
         <f t="shared" si="21"/>
-        <v>8000000</v>
-      </c>
-      <c r="E194">
-        <f t="shared" si="20"/>
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F194">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G194">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H194">
         <f>COUNTIFS($A$2:A194, A194, $B$2:B194, B194, $C$2:C194, C194) - 1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I194" t="str">
-        <f>_xlfn.CONCAT(UPPER(A194), "_", B194, MID("ABC", C194 + 1, 1), IF(COUNTIFS(A:A, A194, B:B, B194, C:C, C194)&gt;1, _xlfn.CONCAT("_", H194), ""))</f>
-        <v>STRAWBERRY_7A_12</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 12</v>
       </c>
       <c r="J194">
-        <f t="shared" si="24"/>
-        <v>8047012</v>
+        <f t="shared" si="26"/>
+        <v>8087011</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -8025,32 +8025,32 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8000000</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E233" si="25">IF(A195="cassette", 10000, IF(A195="completion", 20000, IF(A195="gemheart", 30000, IF(A195="strawberry", 40000, 0))))</f>
-        <v>40000</v>
+        <f t="shared" ref="E195:E234" si="27">IF(A195="cassette", 20000, IF(A195="completion", 40000, IF(A195="gemheart", 60000, IF(A195="strawberry", 80000, 0))))</f>
+        <v>80000</v>
       </c>
       <c r="F195">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7000</v>
       </c>
       <c r="G195">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H195">
         <f>COUNTIFS($A$2:A195, A195, $B$2:B195, B195, $C$2:C195, C195) - 1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I195" t="str">
-        <f>_xlfn.CONCAT(UPPER(A195), "_", B195, MID("ABC", C195 + 1, 1), IF(COUNTIFS(A:A, A195, B:B, B195, C:C, C195)&gt;1, _xlfn.CONCAT("_", H195), ""))</f>
-        <v>STRAWBERRY_7A_13</v>
+        <f t="shared" si="22"/>
+        <v>Level 7 A-Side Strawberry 13</v>
       </c>
       <c r="J195">
-        <f t="shared" si="24"/>
-        <v>8047013</v>
+        <f t="shared" si="26"/>
+        <v>8087012</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -8064,32 +8064,32 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8000000</v>
       </c>
       <c r="E196">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G196">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F196">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G196">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H196">
         <f>COUNTIFS($A$2:A196, A196, $B$2:B196, B196, $C$2:C196, C196) - 1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I196" t="str">
-        <f>_xlfn.CONCAT(UPPER(A196), "_", B196, MID("ABC", C196 + 1, 1), IF(COUNTIFS(A:A, A196, B:B, B196, C:C, C196)&gt;1, _xlfn.CONCAT("_", H196), ""))</f>
-        <v>STRAWBERRY_7A_14</v>
+        <f t="shared" ref="I196:I234" si="28">_xlfn.CONCAT("Level ", B196, " ", MID("ABC", C196 + 1, 1), "-Side", IF(A196="completion", " Complete", IF(A196="cassette", " Cassette", IF(A196="gemheart", " Crystal Heart", IF(A196="strawberry", _xlfn.CONCAT(" Strawberry ", H196+1), "")))))</f>
+        <v>Level 7 A-Side Strawberry 14</v>
       </c>
       <c r="J196">
-        <f t="shared" si="24"/>
-        <v>8047014</v>
+        <f t="shared" si="26"/>
+        <v>8087013</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -8103,32 +8103,32 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <f t="shared" ref="D197:D233" si="26">$D$2</f>
+        <f t="shared" si="23"/>
         <v>8000000</v>
       </c>
       <c r="E197">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G197">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H197">
         <f>COUNTIFS($A$2:A197, A197, $B$2:B197, B197, $C$2:C197, C197) - 1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I197" t="str">
-        <f>_xlfn.CONCAT(UPPER(A197), "_", B197, MID("ABC", C197 + 1, 1), IF(COUNTIFS(A:A, A197, B:B, B197, C:C, C197)&gt;1, _xlfn.CONCAT("_", H197), ""))</f>
-        <v>STRAWBERRY_7A_15</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 15</v>
       </c>
       <c r="J197">
-        <f t="shared" si="24"/>
-        <v>8047015</v>
+        <f t="shared" si="26"/>
+        <v>8087014</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -8142,32 +8142,32 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="D198:D234" si="29">$D$2</f>
         <v>8000000</v>
       </c>
       <c r="E198">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G198">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H198">
         <f>COUNTIFS($A$2:A198, A198, $B$2:B198, B198, $C$2:C198, C198) - 1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I198" t="str">
-        <f>_xlfn.CONCAT(UPPER(A198), "_", B198, MID("ABC", C198 + 1, 1), IF(COUNTIFS(A:A, A198, B:B, B198, C:C, C198)&gt;1, _xlfn.CONCAT("_", H198), ""))</f>
-        <v>STRAWBERRY_7A_16</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 16</v>
       </c>
       <c r="J198">
-        <f t="shared" si="24"/>
-        <v>8047016</v>
+        <f t="shared" si="26"/>
+        <v>8087015</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -8181,32 +8181,32 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E199">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G199">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H199">
         <f>COUNTIFS($A$2:A199, A199, $B$2:B199, B199, $C$2:C199, C199) - 1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I199" t="str">
-        <f>_xlfn.CONCAT(UPPER(A199), "_", B199, MID("ABC", C199 + 1, 1), IF(COUNTIFS(A:A, A199, B:B, B199, C:C, C199)&gt;1, _xlfn.CONCAT("_", H199), ""))</f>
-        <v>STRAWBERRY_7A_17</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 17</v>
       </c>
       <c r="J199">
-        <f t="shared" si="24"/>
-        <v>8047017</v>
+        <f t="shared" si="26"/>
+        <v>8087016</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -8220,32 +8220,32 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E200">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G200">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H200">
         <f>COUNTIFS($A$2:A200, A200, $B$2:B200, B200, $C$2:C200, C200) - 1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I200" t="str">
-        <f>_xlfn.CONCAT(UPPER(A200), "_", B200, MID("ABC", C200 + 1, 1), IF(COUNTIFS(A:A, A200, B:B, B200, C:C, C200)&gt;1, _xlfn.CONCAT("_", H200), ""))</f>
-        <v>STRAWBERRY_7A_18</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 18</v>
       </c>
       <c r="J200">
-        <f t="shared" si="24"/>
-        <v>8047018</v>
+        <f t="shared" si="26"/>
+        <v>8087017</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -8259,32 +8259,32 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E201">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G201">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F201">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H201">
         <f>COUNTIFS($A$2:A201, A201, $B$2:B201, B201, $C$2:C201, C201) - 1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I201" t="str">
-        <f>_xlfn.CONCAT(UPPER(A201), "_", B201, MID("ABC", C201 + 1, 1), IF(COUNTIFS(A:A, A201, B:B, B201, C:C, C201)&gt;1, _xlfn.CONCAT("_", H201), ""))</f>
-        <v>STRAWBERRY_7A_19</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 19</v>
       </c>
       <c r="J201">
-        <f t="shared" si="24"/>
-        <v>8047019</v>
+        <f t="shared" si="26"/>
+        <v>8087018</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -8298,32 +8298,32 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E202">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G202">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F202">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G202">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H202">
         <f>COUNTIFS($A$2:A202, A202, $B$2:B202, B202, $C$2:C202, C202) - 1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I202" t="str">
-        <f>_xlfn.CONCAT(UPPER(A202), "_", B202, MID("ABC", C202 + 1, 1), IF(COUNTIFS(A:A, A202, B:B, B202, C:C, C202)&gt;1, _xlfn.CONCAT("_", H202), ""))</f>
-        <v>STRAWBERRY_7A_20</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 20</v>
       </c>
       <c r="J202">
-        <f t="shared" si="24"/>
-        <v>8047020</v>
+        <f t="shared" si="26"/>
+        <v>8087019</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -8337,32 +8337,32 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E203">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G203">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F203">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G203">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H203">
         <f>COUNTIFS($A$2:A203, A203, $B$2:B203, B203, $C$2:C203, C203) - 1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I203" t="str">
-        <f>_xlfn.CONCAT(UPPER(A203), "_", B203, MID("ABC", C203 + 1, 1), IF(COUNTIFS(A:A, A203, B:B, B203, C:C, C203)&gt;1, _xlfn.CONCAT("_", H203), ""))</f>
-        <v>STRAWBERRY_7A_21</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 21</v>
       </c>
       <c r="J203">
-        <f t="shared" si="24"/>
-        <v>8047021</v>
+        <f t="shared" si="26"/>
+        <v>8087020</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -8376,32 +8376,32 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E204">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G204">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F204">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G204">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H204">
         <f>COUNTIFS($A$2:A204, A204, $B$2:B204, B204, $C$2:C204, C204) - 1</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I204" t="str">
-        <f>_xlfn.CONCAT(UPPER(A204), "_", B204, MID("ABC", C204 + 1, 1), IF(COUNTIFS(A:A, A204, B:B, B204, C:C, C204)&gt;1, _xlfn.CONCAT("_", H204), ""))</f>
-        <v>STRAWBERRY_7A_22</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 22</v>
       </c>
       <c r="J204">
-        <f t="shared" si="24"/>
-        <v>8047022</v>
+        <f t="shared" si="26"/>
+        <v>8087021</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -8415,32 +8415,32 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E205">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G205">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G205">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H205">
         <f>COUNTIFS($A$2:A205, A205, $B$2:B205, B205, $C$2:C205, C205) - 1</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I205" t="str">
-        <f>_xlfn.CONCAT(UPPER(A205), "_", B205, MID("ABC", C205 + 1, 1), IF(COUNTIFS(A:A, A205, B:B, B205, C:C, C205)&gt;1, _xlfn.CONCAT("_", H205), ""))</f>
-        <v>STRAWBERRY_7A_23</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 23</v>
       </c>
       <c r="J205">
-        <f t="shared" si="24"/>
-        <v>8047023</v>
+        <f t="shared" si="26"/>
+        <v>8087022</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -8454,32 +8454,32 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E206">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G206">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H206">
         <f>COUNTIFS($A$2:A206, A206, $B$2:B206, B206, $C$2:C206, C206) - 1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I206" t="str">
-        <f>_xlfn.CONCAT(UPPER(A206), "_", B206, MID("ABC", C206 + 1, 1), IF(COUNTIFS(A:A, A206, B:B, B206, C:C, C206)&gt;1, _xlfn.CONCAT("_", H206), ""))</f>
-        <v>STRAWBERRY_7A_24</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 24</v>
       </c>
       <c r="J206">
-        <f t="shared" si="24"/>
-        <v>8047024</v>
+        <f t="shared" si="26"/>
+        <v>8087023</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -8493,32 +8493,32 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E207">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G207">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F207">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G207">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H207">
         <f>COUNTIFS($A$2:A207, A207, $B$2:B207, B207, $C$2:C207, C207) - 1</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I207" t="str">
-        <f>_xlfn.CONCAT(UPPER(A207), "_", B207, MID("ABC", C207 + 1, 1), IF(COUNTIFS(A:A, A207, B:B, B207, C:C, C207)&gt;1, _xlfn.CONCAT("_", H207), ""))</f>
-        <v>STRAWBERRY_7A_25</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 25</v>
       </c>
       <c r="J207">
-        <f t="shared" si="24"/>
-        <v>8047025</v>
+        <f t="shared" si="26"/>
+        <v>8087024</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -8532,32 +8532,32 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E208">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G208">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F208">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G208">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H208">
         <f>COUNTIFS($A$2:A208, A208, $B$2:B208, B208, $C$2:C208, C208) - 1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I208" t="str">
-        <f>_xlfn.CONCAT(UPPER(A208), "_", B208, MID("ABC", C208 + 1, 1), IF(COUNTIFS(A:A, A208, B:B, B208, C:C, C208)&gt;1, _xlfn.CONCAT("_", H208), ""))</f>
-        <v>STRAWBERRY_7A_26</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 26</v>
       </c>
       <c r="J208">
-        <f t="shared" si="24"/>
-        <v>8047026</v>
+        <f t="shared" si="26"/>
+        <v>8087025</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -8571,32 +8571,32 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E209">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G209">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F209">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G209">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H209">
         <f>COUNTIFS($A$2:A209, A209, $B$2:B209, B209, $C$2:C209, C209) - 1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I209" t="str">
-        <f>_xlfn.CONCAT(UPPER(A209), "_", B209, MID("ABC", C209 + 1, 1), IF(COUNTIFS(A:A, A209, B:B, B209, C:C, C209)&gt;1, _xlfn.CONCAT("_", H209), ""))</f>
-        <v>STRAWBERRY_7A_27</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 27</v>
       </c>
       <c r="J209">
-        <f t="shared" si="24"/>
-        <v>8047027</v>
+        <f t="shared" si="26"/>
+        <v>8087026</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -8610,32 +8610,32 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E210">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G210">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F210">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G210">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H210">
         <f>COUNTIFS($A$2:A210, A210, $B$2:B210, B210, $C$2:C210, C210) - 1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I210" t="str">
-        <f>_xlfn.CONCAT(UPPER(A210), "_", B210, MID("ABC", C210 + 1, 1), IF(COUNTIFS(A:A, A210, B:B, B210, C:C, C210)&gt;1, _xlfn.CONCAT("_", H210), ""))</f>
-        <v>STRAWBERRY_7A_28</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 28</v>
       </c>
       <c r="J210">
-        <f t="shared" si="24"/>
-        <v>8047028</v>
+        <f t="shared" si="26"/>
+        <v>8087027</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -8649,32 +8649,32 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E211">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G211">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F211">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G211">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H211">
         <f>COUNTIFS($A$2:A211, A211, $B$2:B211, B211, $C$2:C211, C211) - 1</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I211" t="str">
-        <f>_xlfn.CONCAT(UPPER(A211), "_", B211, MID("ABC", C211 + 1, 1), IF(COUNTIFS(A:A, A211, B:B, B211, C:C, C211)&gt;1, _xlfn.CONCAT("_", H211), ""))</f>
-        <v>STRAWBERRY_7A_29</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 29</v>
       </c>
       <c r="J211">
-        <f t="shared" si="24"/>
-        <v>8047029</v>
+        <f t="shared" si="26"/>
+        <v>8087028</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -8688,32 +8688,32 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E212">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G212">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F212">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G212">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H212">
         <f>COUNTIFS($A$2:A212, A212, $B$2:B212, B212, $C$2:C212, C212) - 1</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I212" t="str">
-        <f>_xlfn.CONCAT(UPPER(A212), "_", B212, MID("ABC", C212 + 1, 1), IF(COUNTIFS(A:A, A212, B:B, B212, C:C, C212)&gt;1, _xlfn.CONCAT("_", H212), ""))</f>
-        <v>STRAWBERRY_7A_30</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 30</v>
       </c>
       <c r="J212">
-        <f t="shared" si="24"/>
-        <v>8047030</v>
+        <f t="shared" si="26"/>
+        <v>8087029</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -8727,32 +8727,32 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E213">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G213">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F213">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G213">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H213">
         <f>COUNTIFS($A$2:A213, A213, $B$2:B213, B213, $C$2:C213, C213) - 1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I213" t="str">
-        <f>_xlfn.CONCAT(UPPER(A213), "_", B213, MID("ABC", C213 + 1, 1), IF(COUNTIFS(A:A, A213, B:B, B213, C:C, C213)&gt;1, _xlfn.CONCAT("_", H213), ""))</f>
-        <v>STRAWBERRY_7A_31</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 31</v>
       </c>
       <c r="J213">
-        <f t="shared" si="24"/>
-        <v>8047031</v>
+        <f t="shared" si="26"/>
+        <v>8087030</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -8766,32 +8766,32 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E214">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G214">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F214">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G214">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H214">
         <f>COUNTIFS($A$2:A214, A214, $B$2:B214, B214, $C$2:C214, C214) - 1</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I214" t="str">
-        <f>_xlfn.CONCAT(UPPER(A214), "_", B214, MID("ABC", C214 + 1, 1), IF(COUNTIFS(A:A, A214, B:B, B214, C:C, C214)&gt;1, _xlfn.CONCAT("_", H214), ""))</f>
-        <v>STRAWBERRY_7A_32</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 32</v>
       </c>
       <c r="J214">
-        <f t="shared" si="24"/>
-        <v>8047032</v>
+        <f t="shared" si="26"/>
+        <v>8087031</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -8805,32 +8805,32 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E215">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G215">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F215">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G215">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H215">
         <f>COUNTIFS($A$2:A215, A215, $B$2:B215, B215, $C$2:C215, C215) - 1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I215" t="str">
-        <f>_xlfn.CONCAT(UPPER(A215), "_", B215, MID("ABC", C215 + 1, 1), IF(COUNTIFS(A:A, A215, B:B, B215, C:C, C215)&gt;1, _xlfn.CONCAT("_", H215), ""))</f>
-        <v>STRAWBERRY_7A_33</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 33</v>
       </c>
       <c r="J215">
-        <f t="shared" si="24"/>
-        <v>8047033</v>
+        <f t="shared" si="26"/>
+        <v>8087032</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -8844,32 +8844,32 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E216">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G216">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F216">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G216">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H216">
         <f>COUNTIFS($A$2:A216, A216, $B$2:B216, B216, $C$2:C216, C216) - 1</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I216" t="str">
-        <f>_xlfn.CONCAT(UPPER(A216), "_", B216, MID("ABC", C216 + 1, 1), IF(COUNTIFS(A:A, A216, B:B, B216, C:C, C216)&gt;1, _xlfn.CONCAT("_", H216), ""))</f>
-        <v>STRAWBERRY_7A_34</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 34</v>
       </c>
       <c r="J216">
-        <f t="shared" si="24"/>
-        <v>8047034</v>
+        <f t="shared" si="26"/>
+        <v>8087033</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -8883,32 +8883,32 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E217">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G217">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F217">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G217">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H217">
         <f>COUNTIFS($A$2:A217, A217, $B$2:B217, B217, $C$2:C217, C217) - 1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I217" t="str">
-        <f>_xlfn.CONCAT(UPPER(A217), "_", B217, MID("ABC", C217 + 1, 1), IF(COUNTIFS(A:A, A217, B:B, B217, C:C, C217)&gt;1, _xlfn.CONCAT("_", H217), ""))</f>
-        <v>STRAWBERRY_7A_35</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 35</v>
       </c>
       <c r="J217">
-        <f t="shared" si="24"/>
-        <v>8047035</v>
+        <f t="shared" si="26"/>
+        <v>8087034</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -8922,32 +8922,32 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E218">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G218">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F218">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G218">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H218">
         <f>COUNTIFS($A$2:A218, A218, $B$2:B218, B218, $C$2:C218, C218) - 1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I218" t="str">
-        <f>_xlfn.CONCAT(UPPER(A218), "_", B218, MID("ABC", C218 + 1, 1), IF(COUNTIFS(A:A, A218, B:B, B218, C:C, C218)&gt;1, _xlfn.CONCAT("_", H218), ""))</f>
-        <v>STRAWBERRY_7A_36</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 36</v>
       </c>
       <c r="J218">
-        <f t="shared" si="24"/>
-        <v>8047036</v>
+        <f t="shared" si="26"/>
+        <v>8087035</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -8961,32 +8961,32 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E219">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G219">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F219">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G219">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H219">
         <f>COUNTIFS($A$2:A219, A219, $B$2:B219, B219, $C$2:C219, C219) - 1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I219" t="str">
-        <f>_xlfn.CONCAT(UPPER(A219), "_", B219, MID("ABC", C219 + 1, 1), IF(COUNTIFS(A:A, A219, B:B, B219, C:C, C219)&gt;1, _xlfn.CONCAT("_", H219), ""))</f>
-        <v>STRAWBERRY_7A_37</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 37</v>
       </c>
       <c r="J219">
-        <f t="shared" si="24"/>
-        <v>8047037</v>
+        <f t="shared" si="26"/>
+        <v>8087036</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9000,32 +9000,32 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E220">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G220">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F220">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G220">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H220">
         <f>COUNTIFS($A$2:A220, A220, $B$2:B220, B220, $C$2:C220, C220) - 1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I220" t="str">
-        <f>_xlfn.CONCAT(UPPER(A220), "_", B220, MID("ABC", C220 + 1, 1), IF(COUNTIFS(A:A, A220, B:B, B220, C:C, C220)&gt;1, _xlfn.CONCAT("_", H220), ""))</f>
-        <v>STRAWBERRY_7A_38</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 38</v>
       </c>
       <c r="J220">
-        <f t="shared" si="24"/>
-        <v>8047038</v>
+        <f t="shared" si="26"/>
+        <v>8087037</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9039,32 +9039,32 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E221">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G221">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G221">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H221">
         <f>COUNTIFS($A$2:A221, A221, $B$2:B221, B221, $C$2:C221, C221) - 1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I221" t="str">
-        <f>_xlfn.CONCAT(UPPER(A221), "_", B221, MID("ABC", C221 + 1, 1), IF(COUNTIFS(A:A, A221, B:B, B221, C:C, C221)&gt;1, _xlfn.CONCAT("_", H221), ""))</f>
-        <v>STRAWBERRY_7A_39</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 39</v>
       </c>
       <c r="J221">
-        <f t="shared" si="24"/>
-        <v>8047039</v>
+        <f t="shared" si="26"/>
+        <v>8087038</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9078,32 +9078,32 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E222">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G222">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F222">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H222">
         <f>COUNTIFS($A$2:A222, A222, $B$2:B222, B222, $C$2:C222, C222) - 1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I222" t="str">
-        <f>_xlfn.CONCAT(UPPER(A222), "_", B222, MID("ABC", C222 + 1, 1), IF(COUNTIFS(A:A, A222, B:B, B222, C:C, C222)&gt;1, _xlfn.CONCAT("_", H222), ""))</f>
-        <v>STRAWBERRY_7A_40</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 40</v>
       </c>
       <c r="J222">
-        <f t="shared" si="24"/>
-        <v>8047040</v>
+        <f t="shared" si="26"/>
+        <v>8087039</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9117,32 +9117,32 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E223">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G223">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F223">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H223">
         <f>COUNTIFS($A$2:A223, A223, $B$2:B223, B223, $C$2:C223, C223) - 1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I223" t="str">
-        <f>_xlfn.CONCAT(UPPER(A223), "_", B223, MID("ABC", C223 + 1, 1), IF(COUNTIFS(A:A, A223, B:B, B223, C:C, C223)&gt;1, _xlfn.CONCAT("_", H223), ""))</f>
-        <v>STRAWBERRY_7A_41</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 41</v>
       </c>
       <c r="J223">
-        <f t="shared" si="24"/>
-        <v>8047041</v>
+        <f t="shared" si="26"/>
+        <v>8087040</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9156,32 +9156,32 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E224">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G224">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F224">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H224">
         <f>COUNTIFS($A$2:A224, A224, $B$2:B224, B224, $C$2:C224, C224) - 1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I224" t="str">
-        <f>_xlfn.CONCAT(UPPER(A224), "_", B224, MID("ABC", C224 + 1, 1), IF(COUNTIFS(A:A, A224, B:B, B224, C:C, C224)&gt;1, _xlfn.CONCAT("_", H224), ""))</f>
-        <v>STRAWBERRY_7A_42</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 42</v>
       </c>
       <c r="J224">
-        <f t="shared" si="24"/>
-        <v>8047042</v>
+        <f t="shared" si="26"/>
+        <v>8087041</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9195,32 +9195,32 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E225">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G225">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F225">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H225">
         <f>COUNTIFS($A$2:A225, A225, $B$2:B225, B225, $C$2:C225, C225) - 1</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I225" t="str">
-        <f>_xlfn.CONCAT(UPPER(A225), "_", B225, MID("ABC", C225 + 1, 1), IF(COUNTIFS(A:A, A225, B:B, B225, C:C, C225)&gt;1, _xlfn.CONCAT("_", H225), ""))</f>
-        <v>STRAWBERRY_7A_43</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 43</v>
       </c>
       <c r="J225">
-        <f t="shared" si="24"/>
-        <v>8047043</v>
+        <f t="shared" si="26"/>
+        <v>8087042</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9234,32 +9234,32 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E226">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G226">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F226">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H226">
         <f>COUNTIFS($A$2:A226, A226, $B$2:B226, B226, $C$2:C226, C226) - 1</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I226" t="str">
-        <f>_xlfn.CONCAT(UPPER(A226), "_", B226, MID("ABC", C226 + 1, 1), IF(COUNTIFS(A:A, A226, B:B, B226, C:C, C226)&gt;1, _xlfn.CONCAT("_", H226), ""))</f>
-        <v>STRAWBERRY_7A_44</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 44</v>
       </c>
       <c r="J226">
-        <f t="shared" si="24"/>
-        <v>8047044</v>
+        <f t="shared" si="26"/>
+        <v>8087043</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9273,32 +9273,32 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E227">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G227">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F227">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H227">
         <f>COUNTIFS($A$2:A227, A227, $B$2:B227, B227, $C$2:C227, C227) - 1</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I227" t="str">
-        <f>_xlfn.CONCAT(UPPER(A227), "_", B227, MID("ABC", C227 + 1, 1), IF(COUNTIFS(A:A, A227, B:B, B227, C:C, C227)&gt;1, _xlfn.CONCAT("_", H227), ""))</f>
-        <v>STRAWBERRY_7A_45</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 45</v>
       </c>
       <c r="J227">
-        <f t="shared" si="24"/>
-        <v>8047045</v>
+        <f t="shared" si="26"/>
+        <v>8087044</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9312,32 +9312,32 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E228">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G228">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F228">
-        <f t="shared" si="22"/>
-        <v>7000</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H228">
         <f>COUNTIFS($A$2:A228, A228, $B$2:B228, B228, $C$2:C228, C228) - 1</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I228" t="str">
-        <f>_xlfn.CONCAT(UPPER(A228), "_", B228, MID("ABC", C228 + 1, 1), IF(COUNTIFS(A:A, A228, B:B, B228, C:C, C228)&gt;1, _xlfn.CONCAT("_", H228), ""))</f>
-        <v>STRAWBERRY_7A_46</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 46</v>
       </c>
       <c r="J228">
-        <f t="shared" si="24"/>
-        <v>8047046</v>
+        <f t="shared" si="26"/>
+        <v>8087045</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9345,38 +9345,38 @@
         <v>13</v>
       </c>
       <c r="B229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="D229">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E229">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="24"/>
+        <v>7000</v>
+      </c>
+      <c r="G229">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F229">
-        <f t="shared" si="22"/>
-        <v>8000</v>
-      </c>
-      <c r="G229">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H229">
         <f>COUNTIFS($A$2:A229, A229, $B$2:B229, B229, $C$2:C229, C229) - 1</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I229" t="str">
-        <f>_xlfn.CONCAT(UPPER(A229), "_", B229, MID("ABC", C229 + 1, 1), IF(COUNTIFS(A:A, A229, B:B, B229, C:C, C229)&gt;1, _xlfn.CONCAT("_", H229), ""))</f>
-        <v>STRAWBERRY_8A_0</v>
+        <f t="shared" si="28"/>
+        <v>Level 7 A-Side Strawberry 47</v>
       </c>
       <c r="J229">
-        <f t="shared" si="24"/>
-        <v>8048000</v>
+        <f t="shared" si="26"/>
+        <v>8087046</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9384,38 +9384,38 @@
         <v>13</v>
       </c>
       <c r="B230">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="D230">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E230">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="24"/>
+        <v>9000</v>
+      </c>
+      <c r="G230">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F230">
-        <f t="shared" si="22"/>
-        <v>8000</v>
-      </c>
-      <c r="G230">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H230">
         <f>COUNTIFS($A$2:A230, A230, $B$2:B230, B230, $C$2:C230, C230) - 1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="str">
-        <f>_xlfn.CONCAT(UPPER(A230), "_", B230, MID("ABC", C230 + 1, 1), IF(COUNTIFS(A:A, A230, B:B, B230, C:C, C230)&gt;1, _xlfn.CONCAT("_", H230), ""))</f>
-        <v>STRAWBERRY_8A_1</v>
+        <f t="shared" si="28"/>
+        <v>Level 9 A-Side Strawberry 1</v>
       </c>
       <c r="J230">
-        <f t="shared" si="24"/>
-        <v>8048001</v>
+        <f t="shared" si="26"/>
+        <v>8089000</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9423,38 +9423,38 @@
         <v>13</v>
       </c>
       <c r="B231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E231">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="24"/>
+        <v>9000</v>
+      </c>
+      <c r="G231">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F231">
-        <f t="shared" si="22"/>
-        <v>8000</v>
-      </c>
-      <c r="G231">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H231">
         <f>COUNTIFS($A$2:A231, A231, $B$2:B231, B231, $C$2:C231, C231) - 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="str">
-        <f>_xlfn.CONCAT(UPPER(A231), "_", B231, MID("ABC", C231 + 1, 1), IF(COUNTIFS(A:A, A231, B:B, B231, C:C, C231)&gt;1, _xlfn.CONCAT("_", H231), ""))</f>
-        <v>STRAWBERRY_8A_2</v>
+        <f t="shared" si="28"/>
+        <v>Level 9 A-Side Strawberry 2</v>
       </c>
       <c r="J231">
-        <f t="shared" si="24"/>
-        <v>8048002</v>
+        <f t="shared" si="26"/>
+        <v>8089001</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9462,38 +9462,38 @@
         <v>13</v>
       </c>
       <c r="B232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="D232">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E232">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="24"/>
+        <v>9000</v>
+      </c>
+      <c r="G232">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F232">
-        <f t="shared" si="22"/>
-        <v>8000</v>
-      </c>
-      <c r="G232">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H232">
         <f>COUNTIFS($A$2:A232, A232, $B$2:B232, B232, $C$2:C232, C232) - 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="str">
-        <f>_xlfn.CONCAT(UPPER(A232), "_", B232, MID("ABC", C232 + 1, 1), IF(COUNTIFS(A:A, A232, B:B, B232, C:C, C232)&gt;1, _xlfn.CONCAT("_", H232), ""))</f>
-        <v>STRAWBERRY_8A_3</v>
+        <f t="shared" si="28"/>
+        <v>Level 9 A-Side Strawberry 3</v>
       </c>
       <c r="J232">
-        <f t="shared" si="24"/>
-        <v>8048003</v>
+        <f t="shared" si="26"/>
+        <v>8089002</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9501,38 +9501,77 @@
         <v>13</v>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="D233">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8000000</v>
       </c>
       <c r="E233">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="24"/>
+        <v>9000</v>
+      </c>
+      <c r="G233">
         <f t="shared" si="25"/>
-        <v>40000</v>
-      </c>
-      <c r="F233">
-        <f t="shared" si="22"/>
-        <v>8000</v>
-      </c>
-      <c r="G233">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H233">
         <f>COUNTIFS($A$2:A233, A233, $B$2:B233, B233, $C$2:C233, C233) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="I233" t="str">
+        <f t="shared" si="28"/>
+        <v>Level 9 A-Side Strawberry 4</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="26"/>
+        <v>8089003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234">
+        <v>9</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="29"/>
+        <v>8000000</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="27"/>
+        <v>80000</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="24"/>
+        <v>9000</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <f>COUNTIFS($A$2:A234, A234, $B$2:B234, B234, $C$2:C234, C234) - 1</f>
         <v>4</v>
       </c>
-      <c r="I233" t="str">
-        <f>_xlfn.CONCAT(UPPER(A233), "_", B233, MID("ABC", C233 + 1, 1), IF(COUNTIFS(A:A, A233, B:B, B233, C:C, C233)&gt;1, _xlfn.CONCAT("_", H233), ""))</f>
-        <v>STRAWBERRY_8A_4</v>
-      </c>
-      <c r="J233">
-        <f t="shared" si="24"/>
-        <v>8048004</v>
+      <c r="I234" t="str">
+        <f t="shared" si="28"/>
+        <v>Level 9 A-Side Strawberry 5</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="26"/>
+        <v>8089004</v>
       </c>
     </row>
   </sheetData>
